--- a/fhir/ig/urgencia/StructureDefinition-PatientUrg.xlsx
+++ b/fhir/ig/urgencia/StructureDefinition-PatientUrg.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$159</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$169</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5912" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6283" uniqueCount="857">
   <si>
     <t>Property</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Patient Urg</t>
+    <t>Paciente Urgencia</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T14:38:19-03:00</t>
+    <t>2024-12-13T10:10:51-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1386,6 +1386,66 @@
   </si>
   <si>
     <t>Patient.name:NombreSocial.period</t>
+  </si>
+  <si>
+    <t>Patient.name:NombreTemporal</t>
+  </si>
+  <si>
+    <t>NombreTemporal</t>
+  </si>
+  <si>
+    <t>Nombre empleado en caso de pacientes NN</t>
+  </si>
+  <si>
+    <t>Si es que el paciente atendido no se tiene conocimiento de su nombre, se debe registrar en este elemento información que permita identificarlo</t>
+  </si>
+  <si>
+    <t>Patient.name:NombreTemporal.id</t>
+  </si>
+  <si>
+    <t>Patient.name:NombreTemporal.extension</t>
+  </si>
+  <si>
+    <t>Patient.name:NombreTemporal.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this name.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>Patient.name:NombreTemporal.text</t>
+  </si>
+  <si>
+    <t>Patient.name:NombreTemporal.family</t>
+  </si>
+  <si>
+    <t>Descripción del atuendo o marcas cintura hacia abajo</t>
+  </si>
+  <si>
+    <t>Patient.name:NombreTemporal.given</t>
+  </si>
+  <si>
+    <t>Descripción del atuendo o marcas cintura hacia arriba</t>
+  </si>
+  <si>
+    <t>Given name.</t>
+  </si>
+  <si>
+    <t>Patient.name:NombreTemporal.prefix</t>
+  </si>
+  <si>
+    <t>Patient.name:NombreTemporal.suffix</t>
+  </si>
+  <si>
+    <t>Patient.name:NombreTemporal.period</t>
   </si>
   <si>
     <t>Patient.telecom</t>
@@ -2945,7 +3005,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO159"/>
+  <dimension ref="A1:AO169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -10616,18 +10676,20 @@
         <v>443</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="C66" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="D66" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>92</v>
@@ -10639,7 +10701,7 @@
         <v>92</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>444</v>
+        <v>326</v>
       </c>
       <c r="L66" t="s" s="2">
         <v>445</v>
@@ -10648,10 +10710,10 @@
         <v>446</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>447</v>
+        <v>329</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>448</v>
+        <v>330</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>83</v>
@@ -10700,7 +10762,7 @@
         <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>443</v>
+        <v>325</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -10715,16 +10777,16 @@
         <v>103</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>449</v>
+        <v>333</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>450</v>
+        <v>334</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>451</v>
+        <v>335</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>83</v>
@@ -10732,10 +10794,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>452</v>
+        <v>340</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10847,10 +10909,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>453</v>
+        <v>342</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10964,10 +11026,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>454</v>
+        <v>344</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10984,7 +11046,7 @@
         <v>92</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="J69" t="s" s="2">
         <v>92</v>
@@ -10993,13 +11055,17 @@
         <v>111</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>83</v>
       </c>
@@ -11008,7 +11074,7 @@
         <v>83</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>83</v>
+        <v>453</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>83</v>
@@ -11026,10 +11092,10 @@
         <v>211</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>457</v>
+        <v>350</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>458</v>
+        <v>351</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>83</v>
@@ -11047,7 +11113,7 @@
         <v>83</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>459</v>
+        <v>352</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -11056,13 +11122,13 @@
         <v>91</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>460</v>
+        <v>83</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>461</v>
+        <v>353</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>83</v>
@@ -11071,7 +11137,7 @@
         <v>83</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>462</v>
+        <v>354</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>83</v>
@@ -11079,10 +11145,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>463</v>
+        <v>356</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11090,13 +11156,13 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>83</v>
@@ -11108,16 +11174,16 @@
         <v>196</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>464</v>
+        <v>357</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>465</v>
+        <v>358</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>466</v>
+        <v>359</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>467</v>
+        <v>360</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>83</v>
@@ -11166,7 +11232,7 @@
         <v>83</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>468</v>
+        <v>361</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
@@ -11181,7 +11247,7 @@
         <v>103</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>469</v>
+        <v>362</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>83</v>
@@ -11190,7 +11256,7 @@
         <v>83</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>470</v>
+        <v>363</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>83</v>
@@ -11198,18 +11264,18 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>471</v>
+        <v>365</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>83</v>
+        <v>366</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>91</v>
@@ -11218,26 +11284,24 @@
         <v>92</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J71" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>473</v>
+        <v>436</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>83</v>
       </c>
@@ -11261,11 +11325,13 @@
         <v>83</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="Y71" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="Z71" t="s" s="2">
-        <v>476</v>
+        <v>83</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>83</v>
@@ -11283,7 +11349,7 @@
         <v>83</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>477</v>
+        <v>370</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
@@ -11298,7 +11364,7 @@
         <v>103</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>83</v>
@@ -11307,7 +11373,7 @@
         <v>83</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>478</v>
+        <v>372</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>83</v>
@@ -11315,21 +11381,21 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>479</v>
+        <v>392</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>83</v>
+        <v>393</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>92</v>
@@ -11341,16 +11407,16 @@
         <v>92</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>480</v>
+        <v>196</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>481</v>
+        <v>458</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>483</v>
+        <v>396</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11400,13 +11466,13 @@
         <v>83</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>484</v>
+        <v>397</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>83</v>
@@ -11415,7 +11481,7 @@
         <v>103</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>200</v>
+        <v>398</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>83</v>
@@ -11424,7 +11490,7 @@
         <v>83</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>200</v>
+        <v>399</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>83</v>
@@ -11432,10 +11498,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>485</v>
+        <v>401</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11446,10 +11512,10 @@
         <v>81</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>83</v>
@@ -11458,13 +11524,13 @@
         <v>92</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>303</v>
+        <v>196</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>486</v>
+        <v>402</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>487</v>
+        <v>403</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -11515,13 +11581,13 @@
         <v>83</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>488</v>
+        <v>404</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>83</v>
@@ -11530,7 +11596,7 @@
         <v>103</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>83</v>
@@ -11539,7 +11605,7 @@
         <v>83</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>134</v>
+        <v>406</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>83</v>
@@ -11547,10 +11613,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>489</v>
+        <v>461</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>489</v>
+        <v>408</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11558,13 +11624,13 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>83</v>
@@ -11573,20 +11639,16 @@
         <v>92</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>490</v>
+        <v>409</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>493</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>83</v>
       </c>
@@ -11610,13 +11672,13 @@
         <v>83</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>211</v>
+        <v>83</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>494</v>
+        <v>83</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>495</v>
+        <v>83</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>83</v>
@@ -11634,13 +11696,13 @@
         <v>83</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>489</v>
+        <v>411</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>83</v>
@@ -11649,16 +11711,16 @@
         <v>103</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>496</v>
+        <v>412</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>497</v>
+        <v>83</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>498</v>
+        <v>413</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>83</v>
@@ -11666,10 +11728,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>499</v>
+        <v>462</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>499</v>
+        <v>415</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11677,13 +11739,13 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>83</v>
@@ -11692,19 +11754,17 @@
         <v>92</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>500</v>
+        <v>303</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>501</v>
+        <v>416</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>502</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>503</v>
+        <v>418</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>83</v>
@@ -11753,7 +11813,7 @@
         <v>83</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>499</v>
+        <v>419</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
@@ -11768,27 +11828,27 @@
         <v>103</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>504</v>
+        <v>420</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>505</v>
+        <v>83</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>506</v>
+        <v>421</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>507</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>508</v>
+        <v>463</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>508</v>
+        <v>463</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11796,34 +11856,34 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>92</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J76" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>509</v>
+        <v>464</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>510</v>
+        <v>465</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>510</v>
+        <v>466</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>511</v>
+        <v>467</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>512</v>
+        <v>468</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>83</v>
@@ -11872,13 +11932,13 @@
         <v>83</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>508</v>
+        <v>463</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>83</v>
@@ -11887,16 +11947,16 @@
         <v>103</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>513</v>
+        <v>469</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>200</v>
+        <v>470</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>514</v>
+        <v>471</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>83</v>
@@ -11904,10 +11964,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>515</v>
+        <v>472</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>515</v>
+        <v>472</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11918,10 +11978,10 @@
         <v>81</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>83</v>
@@ -11930,20 +11990,16 @@
         <v>83</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>516</v>
+        <v>196</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>517</v>
+        <v>197</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>520</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>83</v>
       </c>
@@ -11991,22 +12047,22 @@
         <v>83</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>515</v>
+        <v>199</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>521</v>
+        <v>200</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>83</v>
@@ -12015,7 +12071,7 @@
         <v>83</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>522</v>
+        <v>83</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>83</v>
@@ -12023,21 +12079,21 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>523</v>
+        <v>473</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>523</v>
+        <v>473</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>83</v>
@@ -12049,15 +12105,17 @@
         <v>83</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>83</v>
@@ -12094,31 +12152,31 @@
         <v>83</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>83</v>
+        <v>204</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>200</v>
@@ -12138,10 +12196,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>524</v>
+        <v>474</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>524</v>
+        <v>474</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12149,28 +12207,28 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>137</v>
+        <v>475</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>525</v>
+        <v>476</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -12197,46 +12255,46 @@
         <v>83</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>83</v>
+        <v>211</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>83</v>
+        <v>477</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>83</v>
+        <v>478</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="AC79" t="s" s="2">
-        <v>204</v>
+        <v>83</v>
       </c>
       <c r="AD79" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>205</v>
+        <v>479</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>83</v>
+        <v>480</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>83</v>
+        <v>481</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>83</v>
@@ -12245,7 +12303,7 @@
         <v>83</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>83</v>
+        <v>482</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>83</v>
@@ -12253,20 +12311,18 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>526</v>
+        <v>483</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>527</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>91</v>
@@ -12278,21 +12334,23 @@
         <v>83</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>528</v>
+        <v>196</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>529</v>
+        <v>484</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>530</v>
+        <v>485</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="O80" s="2"/>
+        <v>486</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>487</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>83</v>
       </c>
@@ -12340,22 +12398,22 @@
         <v>83</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>205</v>
+        <v>488</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>83</v>
+        <v>489</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>83</v>
@@ -12364,7 +12422,7 @@
         <v>83</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>83</v>
+        <v>490</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>83</v>
@@ -12372,14 +12430,12 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>532</v>
+        <v>491</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>533</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
         <v>83</v>
       </c>
@@ -12394,22 +12450,26 @@
         <v>92</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>534</v>
+        <v>111</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>535</v>
+        <v>492</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
+        <v>493</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>83</v>
       </c>
@@ -12433,13 +12493,11 @@
         <v>83</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="Y81" s="2"/>
       <c r="Z81" t="s" s="2">
-        <v>83</v>
+        <v>496</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>83</v>
@@ -12457,22 +12515,22 @@
         <v>83</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>205</v>
+        <v>497</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>83</v>
+        <v>353</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>83</v>
@@ -12481,7 +12539,7 @@
         <v>83</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>83</v>
+        <v>498</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>83</v>
@@ -12489,10 +12547,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>537</v>
+        <v>499</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>537</v>
+        <v>499</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12500,7 +12558,7 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>91</v>
@@ -12509,26 +12567,24 @@
         <v>92</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J82" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>111</v>
+        <v>500</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>538</v>
+        <v>501</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>539</v>
+        <v>502</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>541</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>83</v>
       </c>
@@ -12540,7 +12596,7 @@
         <v>83</v>
       </c>
       <c r="T82" t="s" s="2">
-        <v>542</v>
+        <v>83</v>
       </c>
       <c r="U82" t="s" s="2">
         <v>83</v>
@@ -12552,13 +12608,13 @@
         <v>83</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>211</v>
+        <v>83</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>543</v>
+        <v>83</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>544</v>
+        <v>83</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>83</v>
@@ -12576,7 +12632,7 @@
         <v>83</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>545</v>
+        <v>504</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>81</v>
@@ -12591,7 +12647,7 @@
         <v>103</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>353</v>
+        <v>200</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>83</v>
@@ -12600,7 +12656,7 @@
         <v>83</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>546</v>
+        <v>200</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>83</v>
@@ -12608,10 +12664,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>547</v>
+        <v>505</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>547</v>
+        <v>505</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12625,7 +12681,7 @@
         <v>91</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>83</v>
@@ -12634,17 +12690,15 @@
         <v>92</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>111</v>
+        <v>303</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>548</v>
+        <v>506</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>550</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>83</v>
@@ -12657,7 +12711,7 @@
         <v>83</v>
       </c>
       <c r="T83" t="s" s="2">
-        <v>551</v>
+        <v>83</v>
       </c>
       <c r="U83" t="s" s="2">
         <v>83</v>
@@ -12669,13 +12723,13 @@
         <v>83</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>211</v>
+        <v>83</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>552</v>
+        <v>83</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>553</v>
+        <v>83</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>83</v>
@@ -12693,7 +12747,7 @@
         <v>83</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>554</v>
+        <v>508</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>81</v>
@@ -12708,7 +12762,7 @@
         <v>103</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>353</v>
+        <v>420</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>83</v>
@@ -12717,7 +12771,7 @@
         <v>83</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>555</v>
+        <v>134</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>83</v>
@@ -12725,10 +12779,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>556</v>
+        <v>509</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>556</v>
+        <v>509</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12736,13 +12790,13 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>83</v>
@@ -12751,19 +12805,19 @@
         <v>92</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>557</v>
+        <v>510</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>558</v>
+        <v>511</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>559</v>
+        <v>512</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>360</v>
+        <v>513</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>83</v>
@@ -12776,7 +12830,7 @@
         <v>83</v>
       </c>
       <c r="T84" t="s" s="2">
-        <v>560</v>
+        <v>83</v>
       </c>
       <c r="U84" t="s" s="2">
         <v>83</v>
@@ -12788,13 +12842,13 @@
         <v>83</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>83</v>
+        <v>211</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>83</v>
+        <v>514</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>83</v>
+        <v>515</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>83</v>
@@ -12812,7 +12866,7 @@
         <v>83</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>561</v>
+        <v>509</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>81</v>
@@ -12827,16 +12881,16 @@
         <v>103</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>362</v>
+        <v>516</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>83</v>
+        <v>517</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>562</v>
+        <v>518</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>83</v>
@@ -12844,10 +12898,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>563</v>
+        <v>519</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>563</v>
+        <v>519</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12855,7 +12909,7 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>91</v>
@@ -12870,16 +12924,20 @@
         <v>92</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>196</v>
+        <v>520</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>564</v>
+        <v>521</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
+        <v>521</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>523</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>83</v>
       </c>
@@ -12891,7 +12949,7 @@
         <v>83</v>
       </c>
       <c r="T85" t="s" s="2">
-        <v>565</v>
+        <v>83</v>
       </c>
       <c r="U85" t="s" s="2">
         <v>83</v>
@@ -12927,13 +12985,13 @@
         <v>83</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>566</v>
+        <v>519</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>83</v>
@@ -12942,35 +13000,35 @@
         <v>103</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>567</v>
+        <v>524</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>83</v>
+        <v>525</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>568</v>
+        <v>526</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>83</v>
+        <v>527</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>569</v>
+        <v>528</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>569</v>
+        <v>528</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>570</v>
+        <v>83</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>91</v>
@@ -12979,22 +13037,26 @@
         <v>92</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="J86" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>196</v>
+        <v>529</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>571</v>
+        <v>530</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
+        <v>530</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>532</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>83</v>
       </c>
@@ -13006,7 +13068,7 @@
         <v>83</v>
       </c>
       <c r="T86" t="s" s="2">
-        <v>573</v>
+        <v>83</v>
       </c>
       <c r="U86" t="s" s="2">
         <v>83</v>
@@ -13042,7 +13104,7 @@
         <v>83</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>574</v>
+        <v>528</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>81</v>
@@ -13057,16 +13119,16 @@
         <v>103</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>575</v>
+        <v>533</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>576</v>
+        <v>534</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>83</v>
@@ -13074,10 +13136,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>577</v>
+        <v>535</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>577</v>
+        <v>535</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13088,10 +13150,10 @@
         <v>81</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>83</v>
@@ -13100,16 +13162,20 @@
         <v>83</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>196</v>
+        <v>536</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>375</v>
+        <v>537</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
+        <v>538</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>540</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>83</v>
       </c>
@@ -13157,22 +13223,22 @@
         <v>83</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>199</v>
+        <v>535</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>83</v>
+        <v>541</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>83</v>
@@ -13181,7 +13247,7 @@
         <v>83</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>83</v>
+        <v>542</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>83</v>
@@ -13189,10 +13255,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>578</v>
+        <v>543</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>578</v>
+        <v>543</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13200,10 +13266,10 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>83</v>
@@ -13215,13 +13281,13 @@
         <v>83</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>579</v>
+        <v>197</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>579</v>
+        <v>198</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -13260,32 +13326,34 @@
         <v>83</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC88" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD88" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>83</v>
@@ -13302,26 +13370,24 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>580</v>
+        <v>544</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="C89" t="s" s="2">
-        <v>581</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>83</v>
@@ -13330,13 +13396,13 @@
         <v>83</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>582</v>
+        <v>136</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>583</v>
+        <v>137</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>584</v>
+        <v>545</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -13375,16 +13441,16 @@
         <v>83</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>83</v>
+        <v>204</v>
       </c>
       <c r="AD89" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>205</v>
@@ -13396,7 +13462,7 @@
         <v>82</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>142</v>
@@ -13419,12 +13485,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>585</v>
+        <v>546</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="C90" s="2"/>
+        <v>544</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>547</v>
+      </c>
       <c r="D90" t="s" s="2">
         <v>83</v>
       </c>
@@ -13436,7 +13504,7 @@
         <v>91</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>83</v>
@@ -13445,15 +13513,17 @@
         <v>83</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>196</v>
+        <v>548</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>387</v>
+        <v>549</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>550</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>551</v>
+      </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>83</v>
@@ -13475,7 +13545,7 @@
         <v>83</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>389</v>
+        <v>83</v>
       </c>
       <c r="X90" t="s" s="2">
         <v>83</v>
@@ -13502,19 +13572,19 @@
         <v>83</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>390</v>
+        <v>205</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>83</v>
@@ -13534,14 +13604,16 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>586</v>
+        <v>552</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="C91" s="2"/>
+        <v>544</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>553</v>
+      </c>
       <c r="D91" t="s" s="2">
-        <v>587</v>
+        <v>83</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13557,20 +13629,18 @@
         <v>83</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>196</v>
+        <v>554</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>588</v>
+        <v>555</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>590</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>83</v>
@@ -13583,7 +13653,7 @@
         <v>83</v>
       </c>
       <c r="T91" t="s" s="2">
-        <v>591</v>
+        <v>83</v>
       </c>
       <c r="U91" t="s" s="2">
         <v>83</v>
@@ -13619,22 +13689,22 @@
         <v>83</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>592</v>
+        <v>205</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>593</v>
+        <v>83</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>83</v>
@@ -13643,7 +13713,7 @@
         <v>83</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>594</v>
+        <v>83</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>83</v>
@@ -13651,10 +13721,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>595</v>
+        <v>557</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>595</v>
+        <v>557</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13662,31 +13732,35 @@
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>375</v>
+        <v>558</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
+        <v>559</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>561</v>
+      </c>
       <c r="P92" t="s" s="2">
         <v>83</v>
       </c>
@@ -13698,7 +13772,7 @@
         <v>83</v>
       </c>
       <c r="T92" t="s" s="2">
-        <v>83</v>
+        <v>562</v>
       </c>
       <c r="U92" t="s" s="2">
         <v>83</v>
@@ -13710,13 +13784,13 @@
         <v>83</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>83</v>
+        <v>211</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>83</v>
+        <v>563</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>83</v>
+        <v>564</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>83</v>
@@ -13734,7 +13808,7 @@
         <v>83</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>199</v>
+        <v>565</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>81</v>
@@ -13746,10 +13820,10 @@
         <v>83</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>83</v>
+        <v>353</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>83</v>
@@ -13758,7 +13832,7 @@
         <v>83</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>83</v>
+        <v>566</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>83</v>
@@ -13766,10 +13840,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>596</v>
+        <v>567</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>596</v>
+        <v>567</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13777,10 +13851,10 @@
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>83</v>
@@ -13789,18 +13863,20 @@
         <v>83</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>597</v>
+        <v>568</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>569</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>570</v>
+      </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>83</v>
@@ -13813,7 +13889,7 @@
         <v>83</v>
       </c>
       <c r="T93" t="s" s="2">
-        <v>83</v>
+        <v>571</v>
       </c>
       <c r="U93" t="s" s="2">
         <v>83</v>
@@ -13825,44 +13901,46 @@
         <v>83</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>83</v>
+        <v>211</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>83</v>
+        <v>572</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>83</v>
+        <v>573</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC93" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD93" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>205</v>
+        <v>574</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>83</v>
+        <v>353</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>83</v>
@@ -13871,7 +13949,7 @@
         <v>83</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>83</v>
+        <v>575</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>83</v>
@@ -13879,44 +13957,46 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>598</v>
+        <v>576</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="C94" t="s" s="2">
-        <v>599</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J94" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="I94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="K94" t="s" s="2">
-        <v>600</v>
+        <v>196</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>601</v>
+        <v>577</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
+        <v>578</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="P94" t="s" s="2">
         <v>83</v>
       </c>
@@ -13928,7 +14008,7 @@
         <v>83</v>
       </c>
       <c r="T94" t="s" s="2">
-        <v>83</v>
+        <v>580</v>
       </c>
       <c r="U94" t="s" s="2">
         <v>83</v>
@@ -13964,22 +14044,22 @@
         <v>83</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>205</v>
+        <v>581</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>83</v>
+        <v>362</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>83</v>
@@ -13988,7 +14068,7 @@
         <v>83</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>83</v>
+        <v>582</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>83</v>
@@ -13996,10 +14076,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -14007,28 +14087,28 @@
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K95" t="s" s="2">
         <v>196</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>387</v>
+        <v>584</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>388</v>
+        <v>584</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -14043,7 +14123,7 @@
         <v>83</v>
       </c>
       <c r="T95" t="s" s="2">
-        <v>83</v>
+        <v>585</v>
       </c>
       <c r="U95" t="s" s="2">
         <v>83</v>
@@ -14052,7 +14132,7 @@
         <v>83</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>389</v>
+        <v>83</v>
       </c>
       <c r="X95" t="s" s="2">
         <v>83</v>
@@ -14079,22 +14159,22 @@
         <v>83</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>390</v>
+        <v>586</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>83</v>
+        <v>587</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>83</v>
@@ -14103,7 +14183,7 @@
         <v>83</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>83</v>
+        <v>588</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>83</v>
@@ -14111,14 +14191,14 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -14140,10 +14220,10 @@
         <v>196</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -14158,7 +14238,7 @@
         <v>83</v>
       </c>
       <c r="T96" t="s" s="2">
-        <v>83</v>
+        <v>593</v>
       </c>
       <c r="U96" t="s" s="2">
         <v>83</v>
@@ -14194,7 +14274,7 @@
         <v>83</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>81</v>
@@ -14209,7 +14289,7 @@
         <v>103</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>83</v>
@@ -14218,7 +14298,7 @@
         <v>83</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>83</v>
@@ -14226,10 +14306,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14341,10 +14421,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14370,10 +14450,10 @@
         <v>136</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -14454,13 +14534,13 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>83</v>
@@ -14482,13 +14562,13 @@
         <v>83</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -14571,10 +14651,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14686,14 +14766,14 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -14703,7 +14783,7 @@
         <v>91</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I101" t="s" s="2">
         <v>83</v>
@@ -14715,12 +14795,14 @@
         <v>196</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="N101" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>610</v>
+      </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>83</v>
@@ -14733,7 +14815,7 @@
         <v>83</v>
       </c>
       <c r="T101" t="s" s="2">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="U101" t="s" s="2">
         <v>83</v>
@@ -14769,7 +14851,7 @@
         <v>83</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>81</v>
@@ -14784,7 +14866,7 @@
         <v>103</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>83</v>
@@ -14793,7 +14875,7 @@
         <v>83</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>83</v>
@@ -14801,10 +14883,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14818,26 +14900,24 @@
         <v>91</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I102" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K102" t="s" s="2">
         <v>196</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>628</v>
+        <v>375</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>629</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="N102" s="2"/>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>83</v>
@@ -14886,7 +14966,7 @@
         <v>83</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>630</v>
+        <v>199</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>81</v>
@@ -14898,10 +14978,10 @@
         <v>83</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>631</v>
+        <v>83</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>83</v>
@@ -14910,7 +14990,7 @@
         <v>83</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>632</v>
+        <v>83</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>83</v>
@@ -14918,10 +14998,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>633</v>
+        <v>616</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>633</v>
+        <v>616</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14929,10 +15009,10 @@
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>83</v>
@@ -14944,13 +15024,13 @@
         <v>83</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>375</v>
+        <v>617</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>376</v>
+        <v>617</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14989,31 +15069,29 @@
         <v>83</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AC103" s="2"/>
       <c r="AD103" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>83</v>
@@ -15033,12 +15111,14 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="C104" s="2"/>
+        <v>616</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>619</v>
+      </c>
       <c r="D104" t="s" s="2">
         <v>83</v>
       </c>
@@ -15047,10 +15127,10 @@
         <v>91</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I104" t="s" s="2">
         <v>83</v>
@@ -15059,13 +15139,13 @@
         <v>83</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>136</v>
+        <v>620</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -15104,14 +15184,16 @@
         <v>83</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC104" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD104" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>205</v>
@@ -15123,7 +15205,7 @@
         <v>82</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>142</v>
@@ -15146,26 +15228,24 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="C105" t="s" s="2">
-        <v>637</v>
-      </c>
+        <v>623</v>
+      </c>
+      <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I105" t="s" s="2">
         <v>83</v>
@@ -15174,13 +15254,13 @@
         <v>83</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>155</v>
+        <v>387</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>156</v>
+        <v>388</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -15204,7 +15284,7 @@
         <v>83</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>83</v>
+        <v>389</v>
       </c>
       <c r="X105" t="s" s="2">
         <v>83</v>
@@ -15231,19 +15311,19 @@
         <v>83</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>205</v>
+        <v>390</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>83</v>
@@ -15263,14 +15343,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>83</v>
+        <v>625</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -15280,22 +15360,22 @@
         <v>91</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I106" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K106" t="s" s="2">
         <v>196</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>387</v>
+        <v>626</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>388</v>
+        <v>627</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -15319,7 +15399,7 @@
         <v>83</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>389</v>
+        <v>83</v>
       </c>
       <c r="X106" t="s" s="2">
         <v>83</v>
@@ -15346,7 +15426,7 @@
         <v>83</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>390</v>
+        <v>628</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>81</v>
@@ -15358,10 +15438,10 @@
         <v>83</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>83</v>
+        <v>629</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>83</v>
@@ -15370,7 +15450,7 @@
         <v>83</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>83</v>
+        <v>630</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>83</v>
@@ -15378,10 +15458,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15395,27 +15475,25 @@
         <v>91</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I107" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>303</v>
+        <v>196</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>640</v>
+        <v>375</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>641</v>
+        <v>376</v>
       </c>
       <c r="N107" s="2"/>
-      <c r="O107" t="s" s="2">
-        <v>642</v>
-      </c>
+      <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>83</v>
       </c>
@@ -15427,7 +15505,7 @@
         <v>83</v>
       </c>
       <c r="T107" t="s" s="2">
-        <v>643</v>
+        <v>83</v>
       </c>
       <c r="U107" t="s" s="2">
         <v>83</v>
@@ -15463,7 +15541,7 @@
         <v>83</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>644</v>
+        <v>199</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>81</v>
@@ -15475,10 +15553,10 @@
         <v>83</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>420</v>
+        <v>83</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>83</v>
@@ -15487,7 +15565,7 @@
         <v>83</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>645</v>
+        <v>83</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>83</v>
@@ -15495,10 +15573,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15506,13 +15584,13 @@
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I108" t="s" s="2">
         <v>83</v>
@@ -15521,18 +15599,16 @@
         <v>83</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>217</v>
+        <v>136</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>647</v>
+        <v>617</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>648</v>
+        <v>617</v>
       </c>
       <c r="N108" s="2"/>
-      <c r="O108" t="s" s="2">
-        <v>649</v>
-      </c>
+      <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>83</v>
       </c>
@@ -15556,53 +15632,53 @@
         <v>83</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="Y108" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="Z108" t="s" s="2">
-        <v>650</v>
+        <v>83</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AC108" s="2"/>
       <c r="AD108" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>646</v>
+        <v>205</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>651</v>
+        <v>83</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>652</v>
+        <v>83</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>653</v>
+        <v>83</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>83</v>
@@ -15610,24 +15686,26 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>654</v>
+        <v>633</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="C109" s="2"/>
+        <v>632</v>
+      </c>
+      <c r="C109" t="s" s="2">
+        <v>634</v>
+      </c>
       <c r="D109" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I109" t="s" s="2">
         <v>83</v>
@@ -15636,20 +15714,16 @@
         <v>83</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>655</v>
+        <v>635</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>659</v>
-      </c>
+        <v>637</v>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>83</v>
       </c>
@@ -15697,31 +15771,31 @@
         <v>83</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>654</v>
+        <v>205</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>660</v>
+        <v>83</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>661</v>
+        <v>83</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>83</v>
@@ -15729,10 +15803,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>662</v>
+        <v>638</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>662</v>
+        <v>638</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15743,7 +15817,7 @@
         <v>81</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>83</v>
@@ -15755,20 +15829,16 @@
         <v>83</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>663</v>
+        <v>196</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>664</v>
+        <v>387</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>667</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
         <v>83</v>
       </c>
@@ -15789,7 +15859,7 @@
         <v>83</v>
       </c>
       <c r="W110" t="s" s="2">
-        <v>83</v>
+        <v>389</v>
       </c>
       <c r="X110" t="s" s="2">
         <v>83</v>
@@ -15816,31 +15886,31 @@
         <v>83</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>662</v>
+        <v>390</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>668</v>
+        <v>83</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>669</v>
+        <v>83</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>83</v>
@@ -15848,46 +15918,42 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>670</v>
+        <v>639</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>670</v>
+        <v>639</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>83</v>
+        <v>640</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J111" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="I111" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="K111" t="s" s="2">
-        <v>671</v>
+        <v>196</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>672</v>
+        <v>641</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>674</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>83</v>
       </c>
@@ -15899,7 +15965,7 @@
         <v>83</v>
       </c>
       <c r="T111" t="s" s="2">
-        <v>83</v>
+        <v>643</v>
       </c>
       <c r="U111" t="s" s="2">
         <v>83</v>
@@ -15935,31 +16001,31 @@
         <v>83</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>670</v>
+        <v>644</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>675</v>
+        <v>103</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>676</v>
+        <v>645</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>83</v>
+        <v>646</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>83</v>
@@ -15967,10 +16033,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>677</v>
+        <v>647</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>677</v>
+        <v>647</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15984,24 +16050,26 @@
         <v>91</v>
       </c>
       <c r="H112" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I112" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K112" t="s" s="2">
         <v>196</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>197</v>
+        <v>648</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N112" s="2"/>
+        <v>648</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>649</v>
+      </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>83</v>
@@ -16050,7 +16118,7 @@
         <v>83</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>199</v>
+        <v>650</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>81</v>
@@ -16062,10 +16130,10 @@
         <v>83</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>200</v>
+        <v>651</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>83</v>
@@ -16074,7 +16142,7 @@
         <v>83</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>83</v>
+        <v>652</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>83</v>
@@ -16082,10 +16150,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>678</v>
+        <v>653</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>678</v>
+        <v>653</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16096,7 +16164,7 @@
         <v>81</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>83</v>
@@ -16108,13 +16176,13 @@
         <v>83</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>137</v>
+        <v>375</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>138</v>
+        <v>376</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -16153,29 +16221,31 @@
         <v>83</v>
       </c>
       <c r="AB113" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC113" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD113" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>83</v>
@@ -16195,26 +16265,24 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>679</v>
+        <v>654</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="C114" t="s" s="2">
-        <v>680</v>
-      </c>
+        <v>654</v>
+      </c>
+      <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H114" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I114" t="s" s="2">
         <v>83</v>
@@ -16223,13 +16291,13 @@
         <v>83</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>681</v>
+        <v>136</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>682</v>
+        <v>655</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>683</v>
+        <v>655</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -16268,16 +16336,14 @@
         <v>83</v>
       </c>
       <c r="AB114" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AC114" s="2"/>
       <c r="AD114" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>205</v>
@@ -16289,7 +16355,7 @@
         <v>82</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>142</v>
@@ -16312,46 +16378,44 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>684</v>
+        <v>656</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="C115" s="2"/>
+        <v>654</v>
+      </c>
+      <c r="C115" t="s" s="2">
+        <v>657</v>
+      </c>
       <c r="D115" t="s" s="2">
-        <v>685</v>
+        <v>83</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H115" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>686</v>
+        <v>155</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
         <v>83</v>
       </c>
@@ -16399,7 +16463,7 @@
         <v>83</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>688</v>
+        <v>205</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>81</v>
@@ -16408,13 +16472,13 @@
         <v>82</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>142</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>83</v>
@@ -16431,10 +16495,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>689</v>
+        <v>658</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>689</v>
+        <v>658</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16445,10 +16509,10 @@
         <v>81</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H116" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I116" t="s" s="2">
         <v>83</v>
@@ -16457,18 +16521,16 @@
         <v>83</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>690</v>
+        <v>387</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>691</v>
+        <v>388</v>
       </c>
       <c r="N116" s="2"/>
-      <c r="O116" t="s" s="2">
-        <v>692</v>
-      </c>
+      <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
         <v>83</v>
       </c>
@@ -16489,16 +16551,16 @@
         <v>83</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>83</v>
+        <v>389</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>211</v>
+        <v>83</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>693</v>
+        <v>83</v>
       </c>
       <c r="Z116" t="s" s="2">
-        <v>694</v>
+        <v>83</v>
       </c>
       <c r="AA116" t="s" s="2">
         <v>83</v>
@@ -16516,31 +16578,31 @@
         <v>83</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>689</v>
+        <v>390</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>695</v>
+        <v>83</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>696</v>
+        <v>83</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>83</v>
@@ -16548,10 +16610,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>697</v>
+        <v>659</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>697</v>
+        <v>659</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16565,25 +16627,27 @@
         <v>91</v>
       </c>
       <c r="H117" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I117" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>196</v>
+        <v>303</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>197</v>
+        <v>660</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>198</v>
+        <v>661</v>
       </c>
       <c r="N117" s="2"/>
-      <c r="O117" s="2"/>
+      <c r="O117" t="s" s="2">
+        <v>662</v>
+      </c>
       <c r="P117" t="s" s="2">
         <v>83</v>
       </c>
@@ -16595,7 +16659,7 @@
         <v>83</v>
       </c>
       <c r="T117" t="s" s="2">
-        <v>83</v>
+        <v>663</v>
       </c>
       <c r="U117" t="s" s="2">
         <v>83</v>
@@ -16631,7 +16695,7 @@
         <v>83</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>199</v>
+        <v>664</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>81</v>
@@ -16643,10 +16707,10 @@
         <v>83</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>200</v>
+        <v>420</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>83</v>
@@ -16655,7 +16719,7 @@
         <v>83</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>83</v>
+        <v>665</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>83</v>
@@ -16663,24 +16727,24 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>698</v>
+        <v>666</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>698</v>
+        <v>666</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>179</v>
+        <v>83</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H118" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I118" t="s" s="2">
         <v>83</v>
@@ -16689,18 +16753,18 @@
         <v>83</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>202</v>
+        <v>667</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O118" s="2"/>
+        <v>668</v>
+      </c>
+      <c r="N118" s="2"/>
+      <c r="O118" t="s" s="2">
+        <v>669</v>
+      </c>
       <c r="P118" t="s" s="2">
         <v>83</v>
       </c>
@@ -16724,55 +16788,53 @@
         <v>83</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y118" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="Y118" s="2"/>
       <c r="Z118" t="s" s="2">
-        <v>83</v>
+        <v>670</v>
       </c>
       <c r="AA118" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB118" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="AC118" t="s" s="2">
-        <v>204</v>
+        <v>83</v>
       </c>
       <c r="AD118" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>205</v>
+        <v>666</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>200</v>
+        <v>671</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>83</v>
+        <v>672</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>83</v>
+        <v>673</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>83</v>
@@ -16780,10 +16842,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>699</v>
+        <v>674</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>699</v>
+        <v>674</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16794,31 +16856,31 @@
         <v>81</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H119" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I119" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>231</v>
+        <v>675</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>232</v>
+        <v>676</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>233</v>
+        <v>677</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>234</v>
+        <v>678</v>
       </c>
       <c r="O119" t="s" s="2">
-        <v>235</v>
+        <v>679</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>83</v>
@@ -16867,13 +16929,13 @@
         <v>83</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>236</v>
+        <v>674</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>83</v>
@@ -16882,16 +16944,16 @@
         <v>103</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>237</v>
+        <v>680</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>238</v>
+        <v>681</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>83</v>
@@ -16899,10 +16961,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>700</v>
+        <v>682</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>700</v>
+        <v>682</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16913,7 +16975,7 @@
         <v>81</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>83</v>
@@ -16922,22 +16984,22 @@
         <v>83</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>196</v>
+        <v>683</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>278</v>
+        <v>684</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>279</v>
+        <v>685</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>280</v>
+        <v>686</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>281</v>
+        <v>687</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>83</v>
@@ -16986,13 +17048,13 @@
         <v>83</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>282</v>
+        <v>682</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>83</v>
@@ -17001,16 +17063,16 @@
         <v>103</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>283</v>
+        <v>688</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>284</v>
+        <v>689</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>83</v>
@@ -17018,10 +17080,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17032,7 +17094,7 @@
         <v>81</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>92</v>
@@ -17044,17 +17106,19 @@
         <v>83</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>326</v>
+        <v>691</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="N121" s="2"/>
+        <v>692</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>693</v>
+      </c>
       <c r="O121" t="s" s="2">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>83</v>
@@ -17103,22 +17167,22 @@
         <v>83</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>103</v>
+        <v>695</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>333</v>
+        <v>696</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>200</v>
@@ -17127,7 +17191,7 @@
         <v>83</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>705</v>
+        <v>83</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>83</v>
@@ -17135,10 +17199,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17250,14 +17314,14 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>179</v>
+        <v>83</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
@@ -17279,14 +17343,12 @@
         <v>136</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="N123" s="2"/>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
         <v>83</v>
@@ -17325,9 +17387,7 @@
       <c r="AB123" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="AC123" t="s" s="2">
-        <v>204</v>
-      </c>
+      <c r="AC123" s="2"/>
       <c r="AD123" t="s" s="2">
         <v>83</v>
       </c>
@@ -17350,7 +17410,7 @@
         <v>142</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>83</v>
@@ -17367,12 +17427,14 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>708</v>
-      </c>
-      <c r="C124" s="2"/>
+        <v>698</v>
+      </c>
+      <c r="C124" t="s" s="2">
+        <v>700</v>
+      </c>
       <c r="D124" t="s" s="2">
         <v>83</v>
       </c>
@@ -17381,32 +17443,28 @@
         <v>81</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>92</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>111</v>
+        <v>701</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>345</v>
+        <v>702</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>709</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="O124" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>703</v>
+      </c>
+      <c r="N124" s="2"/>
+      <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
         <v>83</v>
       </c>
@@ -17415,7 +17473,7 @@
         <v>83</v>
       </c>
       <c r="S124" t="s" s="2">
-        <v>349</v>
+        <v>83</v>
       </c>
       <c r="T124" t="s" s="2">
         <v>83</v>
@@ -17430,13 +17488,13 @@
         <v>83</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>211</v>
+        <v>83</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>350</v>
+        <v>83</v>
       </c>
       <c r="Z124" t="s" s="2">
-        <v>351</v>
+        <v>83</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>83</v>
@@ -17454,22 +17512,22 @@
         <v>83</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>352</v>
+        <v>205</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>353</v>
+        <v>83</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>83</v>
@@ -17478,7 +17536,7 @@
         <v>83</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>354</v>
+        <v>83</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>83</v>
@@ -17486,45 +17544,45 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>83</v>
+        <v>705</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H125" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="J125" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>357</v>
+        <v>706</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>358</v>
+        <v>707</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>359</v>
+        <v>182</v>
       </c>
       <c r="O125" t="s" s="2">
-        <v>360</v>
+        <v>183</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>83</v>
@@ -17573,22 +17631,22 @@
         <v>83</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>361</v>
+        <v>708</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>362</v>
+        <v>134</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>83</v>
@@ -17597,7 +17655,7 @@
         <v>83</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>363</v>
+        <v>83</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>83</v>
@@ -17605,21 +17663,21 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
-        <v>366</v>
+        <v>83</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H126" t="s" s="2">
         <v>92</v>
@@ -17628,21 +17686,21 @@
         <v>83</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>367</v>
+        <v>710</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="O126" s="2"/>
+        <v>711</v>
+      </c>
+      <c r="N126" s="2"/>
+      <c r="O126" t="s" s="2">
+        <v>712</v>
+      </c>
       <c r="P126" t="s" s="2">
         <v>83</v>
       </c>
@@ -17666,13 +17724,13 @@
         <v>83</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>83</v>
+        <v>211</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>83</v>
+        <v>713</v>
       </c>
       <c r="Z126" t="s" s="2">
-        <v>83</v>
+        <v>714</v>
       </c>
       <c r="AA126" t="s" s="2">
         <v>83</v>
@@ -17690,13 +17748,13 @@
         <v>83</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>370</v>
+        <v>709</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>83</v>
@@ -17705,16 +17763,16 @@
         <v>103</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>371</v>
+        <v>715</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>372</v>
+        <v>716</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>83</v>
@@ -17722,10 +17780,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17751,10 +17809,10 @@
         <v>196</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>375</v>
+        <v>197</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>376</v>
+        <v>198</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -17820,7 +17878,7 @@
         <v>83</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>83</v>
@@ -17837,14 +17895,14 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" t="s" s="2">
@@ -17866,12 +17924,14 @@
         <v>136</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>715</v>
+        <v>202</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N128" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N128" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
         <v>83</v>
@@ -17910,7 +17970,9 @@
       <c r="AB128" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="AC128" s="2"/>
+      <c r="AC128" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="AD128" t="s" s="2">
         <v>83</v>
       </c>
@@ -17933,7 +17995,7 @@
         <v>142</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>83</v>
@@ -17950,14 +18012,12 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="C129" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>719</v>
+      </c>
+      <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
         <v>83</v>
       </c>
@@ -17966,7 +18026,7 @@
         <v>81</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>92</v>
@@ -17975,19 +18035,23 @@
         <v>83</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>383</v>
+        <v>231</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>384</v>
+        <v>232</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N129" s="2"/>
-      <c r="O129" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="N129" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="O129" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="P129" t="s" s="2">
         <v>83</v>
       </c>
@@ -18035,7 +18099,7 @@
         <v>83</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>81</v>
@@ -18044,13 +18108,13 @@
         <v>82</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>83</v>
+        <v>237</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>83</v>
@@ -18059,7 +18123,7 @@
         <v>83</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>83</v>
+        <v>238</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>83</v>
@@ -18067,10 +18131,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18090,19 +18154,23 @@
         <v>83</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K130" t="s" s="2">
         <v>196</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>387</v>
+        <v>278</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N130" s="2"/>
-      <c r="O130" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N130" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="O130" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="P130" t="s" s="2">
         <v>83</v>
       </c>
@@ -18123,7 +18191,7 @@
         <v>83</v>
       </c>
       <c r="W130" t="s" s="2">
-        <v>389</v>
+        <v>83</v>
       </c>
       <c r="X130" t="s" s="2">
         <v>83</v>
@@ -18150,7 +18218,7 @@
         <v>83</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>390</v>
+        <v>282</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>81</v>
@@ -18162,10 +18230,10 @@
         <v>83</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>83</v>
+        <v>283</v>
       </c>
       <c r="AL130" t="s" s="2">
         <v>83</v>
@@ -18174,7 +18242,7 @@
         <v>83</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>83</v>
+        <v>284</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>83</v>
@@ -18182,21 +18250,21 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
-        <v>393</v>
+        <v>83</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G131" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H131" t="s" s="2">
         <v>92</v>
@@ -18205,21 +18273,21 @@
         <v>83</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>196</v>
+        <v>326</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>720</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="O131" s="2"/>
+        <v>723</v>
+      </c>
+      <c r="N131" s="2"/>
+      <c r="O131" t="s" s="2">
+        <v>724</v>
+      </c>
       <c r="P131" t="s" s="2">
         <v>83</v>
       </c>
@@ -18267,13 +18335,13 @@
         <v>83</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>397</v>
+        <v>721</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>83</v>
@@ -18282,16 +18350,16 @@
         <v>103</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>398</v>
+        <v>333</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>399</v>
+        <v>725</v>
       </c>
       <c r="AO131" t="s" s="2">
         <v>83</v>
@@ -18299,10 +18367,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18313,7 +18381,7 @@
         <v>81</v>
       </c>
       <c r="G132" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H132" t="s" s="2">
         <v>83</v>
@@ -18322,16 +18390,16 @@
         <v>83</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K132" t="s" s="2">
         <v>196</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>402</v>
+        <v>197</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>403</v>
+        <v>198</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
@@ -18382,22 +18450,22 @@
         <v>83</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>404</v>
+        <v>199</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>405</v>
+        <v>200</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>83</v>
@@ -18406,7 +18474,7 @@
         <v>83</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>406</v>
+        <v>83</v>
       </c>
       <c r="AO132" t="s" s="2">
         <v>83</v>
@@ -18414,14 +18482,14 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" t="s" s="2">
@@ -18437,18 +18505,20 @@
         <v>83</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>409</v>
+        <v>202</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N133" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N133" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O133" s="2"/>
       <c r="P133" t="s" s="2">
         <v>83</v>
@@ -18485,19 +18555,19 @@
         <v>83</v>
       </c>
       <c r="AB133" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="AC133" t="s" s="2">
-        <v>83</v>
+        <v>204</v>
       </c>
       <c r="AD133" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>411</v>
+        <v>205</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>81</v>
@@ -18509,10 +18579,10 @@
         <v>83</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>412</v>
+        <v>200</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>83</v>
@@ -18521,7 +18591,7 @@
         <v>83</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>413</v>
+        <v>83</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>83</v>
@@ -18529,10 +18599,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18546,26 +18616,28 @@
         <v>91</v>
       </c>
       <c r="H134" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I134" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="J134" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>303</v>
+        <v>111</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>416</v>
+        <v>345</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N134" s="2"/>
+        <v>729</v>
+      </c>
+      <c r="N134" t="s" s="2">
+        <v>730</v>
+      </c>
       <c r="O134" t="s" s="2">
-        <v>418</v>
+        <v>348</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>83</v>
@@ -18575,7 +18647,7 @@
         <v>83</v>
       </c>
       <c r="S134" t="s" s="2">
-        <v>83</v>
+        <v>349</v>
       </c>
       <c r="T134" t="s" s="2">
         <v>83</v>
@@ -18590,13 +18662,13 @@
         <v>83</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>83</v>
+        <v>211</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>83</v>
+        <v>350</v>
       </c>
       <c r="Z134" t="s" s="2">
-        <v>83</v>
+        <v>351</v>
       </c>
       <c r="AA134" t="s" s="2">
         <v>83</v>
@@ -18614,7 +18686,7 @@
         <v>83</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>419</v>
+        <v>352</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>81</v>
@@ -18629,7 +18701,7 @@
         <v>103</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>420</v>
+        <v>353</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>83</v>
@@ -18638,7 +18710,7 @@
         <v>83</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>421</v>
+        <v>354</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>83</v>
@@ -18646,10 +18718,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18660,7 +18732,7 @@
         <v>81</v>
       </c>
       <c r="G135" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H135" t="s" s="2">
         <v>83</v>
@@ -18669,22 +18741,22 @@
         <v>83</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>444</v>
+        <v>196</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>725</v>
+        <v>357</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>726</v>
+        <v>358</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>727</v>
+        <v>359</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>448</v>
+        <v>360</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>83</v>
@@ -18733,13 +18805,13 @@
         <v>83</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>724</v>
+        <v>361</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI135" t="s" s="2">
         <v>83</v>
@@ -18748,16 +18820,16 @@
         <v>103</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>449</v>
+        <v>362</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>728</v>
+        <v>363</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>83</v>
@@ -18765,14 +18837,14 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
-        <v>83</v>
+        <v>366</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" t="s" s="2">
@@ -18782,27 +18854,27 @@
         <v>91</v>
       </c>
       <c r="H136" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I136" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>730</v>
+        <v>196</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>731</v>
+        <v>367</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>732</v>
-      </c>
-      <c r="N136" s="2"/>
-      <c r="O136" t="s" s="2">
-        <v>733</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="N136" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="O136" s="2"/>
       <c r="P136" t="s" s="2">
         <v>83</v>
       </c>
@@ -18850,7 +18922,7 @@
         <v>83</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>729</v>
+        <v>370</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>81</v>
@@ -18865,16 +18937,16 @@
         <v>103</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>734</v>
+        <v>371</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>735</v>
+        <v>372</v>
       </c>
       <c r="AO136" t="s" s="2">
         <v>83</v>
@@ -18882,10 +18954,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18908,18 +18980,16 @@
         <v>83</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>737</v>
+        <v>375</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>738</v>
+        <v>376</v>
       </c>
       <c r="N137" s="2"/>
-      <c r="O137" t="s" s="2">
-        <v>739</v>
-      </c>
+      <c r="O137" s="2"/>
       <c r="P137" t="s" s="2">
         <v>83</v>
       </c>
@@ -18943,13 +19013,13 @@
         <v>83</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>211</v>
+        <v>83</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>494</v>
+        <v>83</v>
       </c>
       <c r="Z137" t="s" s="2">
-        <v>495</v>
+        <v>83</v>
       </c>
       <c r="AA137" t="s" s="2">
         <v>83</v>
@@ -18967,7 +19037,7 @@
         <v>83</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>736</v>
+        <v>199</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>81</v>
@@ -18979,19 +19049,19 @@
         <v>83</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>496</v>
+        <v>83</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="AM137" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN137" t="s" s="2">
-        <v>740</v>
+        <v>83</v>
       </c>
       <c r="AO137" t="s" s="2">
         <v>83</v>
@@ -18999,10 +19069,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19013,7 +19083,7 @@
         <v>81</v>
       </c>
       <c r="G138" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H138" t="s" s="2">
         <v>83</v>
@@ -19025,18 +19095,16 @@
         <v>83</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>310</v>
+        <v>136</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>743</v>
+        <v>380</v>
       </c>
       <c r="N138" s="2"/>
-      <c r="O138" t="s" s="2">
-        <v>744</v>
-      </c>
+      <c r="O138" s="2"/>
       <c r="P138" t="s" s="2">
         <v>83</v>
       </c>
@@ -19072,43 +19140,41 @@
         <v>83</v>
       </c>
       <c r="AB138" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC138" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AC138" s="2"/>
       <c r="AD138" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>741</v>
+        <v>205</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH138" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>745</v>
+        <v>83</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>746</v>
+        <v>83</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>747</v>
+        <v>83</v>
       </c>
       <c r="AO138" t="s" s="2">
         <v>83</v>
@@ -19116,12 +19182,14 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>748</v>
-      </c>
-      <c r="C139" s="2"/>
+        <v>734</v>
+      </c>
+      <c r="C139" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="D139" t="s" s="2">
         <v>83</v>
       </c>
@@ -19133,7 +19201,7 @@
         <v>91</v>
       </c>
       <c r="H139" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I139" t="s" s="2">
         <v>83</v>
@@ -19142,13 +19210,13 @@
         <v>83</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>303</v>
+        <v>383</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>749</v>
+        <v>384</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>750</v>
+        <v>384</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" s="2"/>
@@ -19199,25 +19267,25 @@
         <v>83</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>748</v>
+        <v>205</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH139" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>751</v>
+        <v>83</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>83</v>
@@ -19231,10 +19299,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>752</v>
+        <v>737</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>752</v>
+        <v>737</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19245,10 +19313,10 @@
         <v>81</v>
       </c>
       <c r="G140" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H140" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I140" t="s" s="2">
         <v>83</v>
@@ -19257,20 +19325,16 @@
         <v>83</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>671</v>
+        <v>196</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>753</v>
+        <v>387</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>753</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>754</v>
-      </c>
-      <c r="O140" t="s" s="2">
-        <v>755</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="N140" s="2"/>
+      <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
         <v>83</v>
       </c>
@@ -19291,7 +19355,7 @@
         <v>83</v>
       </c>
       <c r="W140" t="s" s="2">
-        <v>83</v>
+        <v>389</v>
       </c>
       <c r="X140" t="s" s="2">
         <v>83</v>
@@ -19318,25 +19382,25 @@
         <v>83</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>752</v>
+        <v>390</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH140" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI140" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>756</v>
+        <v>83</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>757</v>
+        <v>83</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>83</v>
@@ -19350,41 +19414,43 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>758</v>
+        <v>738</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>758</v>
+        <v>738</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>83</v>
+        <v>393</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G141" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H141" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I141" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K141" t="s" s="2">
         <v>196</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>197</v>
+        <v>739</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N141" s="2"/>
+        <v>740</v>
+      </c>
+      <c r="N141" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="O141" s="2"/>
       <c r="P141" t="s" s="2">
         <v>83</v>
@@ -19433,22 +19499,22 @@
         <v>83</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>199</v>
+        <v>397</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI141" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>200</v>
+        <v>398</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>83</v>
@@ -19457,7 +19523,7 @@
         <v>83</v>
       </c>
       <c r="AN141" t="s" s="2">
-        <v>83</v>
+        <v>399</v>
       </c>
       <c r="AO141" t="s" s="2">
         <v>83</v>
@@ -19465,14 +19531,14 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>759</v>
+        <v>741</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>759</v>
+        <v>741</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
-        <v>179</v>
+        <v>83</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" t="s" s="2">
@@ -19488,20 +19554,18 @@
         <v>83</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>202</v>
+        <v>402</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N142" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="N142" s="2"/>
       <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
         <v>83</v>
@@ -19550,7 +19614,7 @@
         <v>83</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>205</v>
+        <v>404</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>81</v>
@@ -19562,10 +19626,10 @@
         <v>83</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>200</v>
+        <v>405</v>
       </c>
       <c r="AL142" t="s" s="2">
         <v>83</v>
@@ -19574,7 +19638,7 @@
         <v>83</v>
       </c>
       <c r="AN142" t="s" s="2">
-        <v>83</v>
+        <v>406</v>
       </c>
       <c r="AO142" t="s" s="2">
         <v>83</v>
@@ -19582,14 +19646,14 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>760</v>
+        <v>742</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>760</v>
+        <v>742</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
-        <v>685</v>
+        <v>83</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" t="s" s="2">
@@ -19602,26 +19666,22 @@
         <v>83</v>
       </c>
       <c r="I143" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J143" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>686</v>
+        <v>409</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O143" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="N143" s="2"/>
+      <c r="O143" s="2"/>
       <c r="P143" t="s" s="2">
         <v>83</v>
       </c>
@@ -19669,7 +19729,7 @@
         <v>83</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>688</v>
+        <v>411</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>81</v>
@@ -19681,10 +19741,10 @@
         <v>83</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>134</v>
+        <v>412</v>
       </c>
       <c r="AL143" t="s" s="2">
         <v>83</v>
@@ -19693,7 +19753,7 @@
         <v>83</v>
       </c>
       <c r="AN143" t="s" s="2">
-        <v>83</v>
+        <v>413</v>
       </c>
       <c r="AO143" t="s" s="2">
         <v>83</v>
@@ -19701,10 +19761,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>761</v>
+        <v>743</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>761</v>
+        <v>743</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -19712,34 +19772,32 @@
       </c>
       <c r="E144" s="2"/>
       <c r="F144" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G144" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H144" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I144" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J144" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="I144" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J144" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="K144" t="s" s="2">
-        <v>217</v>
+        <v>303</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>762</v>
+        <v>416</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>763</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>764</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
-        <v>765</v>
+        <v>418</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>83</v>
@@ -19764,13 +19822,13 @@
         <v>83</v>
       </c>
       <c r="X144" t="s" s="2">
-        <v>211</v>
+        <v>83</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>766</v>
+        <v>83</v>
       </c>
       <c r="Z144" t="s" s="2">
-        <v>767</v>
+        <v>83</v>
       </c>
       <c r="AA144" t="s" s="2">
         <v>83</v>
@@ -19788,10 +19846,10 @@
         <v>83</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>761</v>
+        <v>419</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>91</v>
@@ -19803,16 +19861,16 @@
         <v>103</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>768</v>
+        <v>420</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>769</v>
+        <v>83</v>
       </c>
       <c r="AM144" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN144" t="s" s="2">
-        <v>770</v>
+        <v>421</v>
       </c>
       <c r="AO144" t="s" s="2">
         <v>83</v>
@@ -19820,10 +19878,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>771</v>
+        <v>744</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>771</v>
+        <v>744</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19834,7 +19892,7 @@
         <v>81</v>
       </c>
       <c r="G145" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>83</v>
@@ -19846,19 +19904,19 @@
         <v>83</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>772</v>
+        <v>745</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>773</v>
+        <v>746</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>774</v>
+        <v>747</v>
       </c>
       <c r="O145" t="s" s="2">
-        <v>775</v>
+        <v>468</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>83</v>
@@ -19907,13 +19965,13 @@
         <v>83</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>771</v>
+        <v>744</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH145" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI145" t="s" s="2">
         <v>83</v>
@@ -19922,16 +19980,16 @@
         <v>103</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>776</v>
+        <v>469</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>777</v>
+        <v>200</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN145" t="s" s="2">
-        <v>778</v>
+        <v>748</v>
       </c>
       <c r="AO145" t="s" s="2">
         <v>83</v>
@@ -19939,24 +19997,24 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>779</v>
+        <v>749</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>779</v>
+        <v>749</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
-        <v>780</v>
+        <v>83</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G146" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H146" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I146" t="s" s="2">
         <v>83</v>
@@ -19965,18 +20023,18 @@
         <v>83</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>781</v>
+        <v>750</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>782</v>
+        <v>751</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>782</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>783</v>
-      </c>
-      <c r="O146" s="2"/>
+        <v>752</v>
+      </c>
+      <c r="N146" s="2"/>
+      <c r="O146" t="s" s="2">
+        <v>753</v>
+      </c>
       <c r="P146" t="s" s="2">
         <v>83</v>
       </c>
@@ -20024,13 +20082,13 @@
         <v>83</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>779</v>
+        <v>749</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH146" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI146" t="s" s="2">
         <v>83</v>
@@ -20039,7 +20097,7 @@
         <v>103</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>784</v>
+        <v>754</v>
       </c>
       <c r="AL146" t="s" s="2">
         <v>200</v>
@@ -20048,7 +20106,7 @@
         <v>83</v>
       </c>
       <c r="AN146" t="s" s="2">
-        <v>785</v>
+        <v>755</v>
       </c>
       <c r="AO146" t="s" s="2">
         <v>83</v>
@@ -20056,10 +20114,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>786</v>
+        <v>756</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>786</v>
+        <v>756</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20082,16 +20140,18 @@
         <v>83</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>197</v>
+        <v>757</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>198</v>
+        <v>758</v>
       </c>
       <c r="N147" s="2"/>
-      <c r="O147" s="2"/>
+      <c r="O147" t="s" s="2">
+        <v>759</v>
+      </c>
       <c r="P147" t="s" s="2">
         <v>83</v>
       </c>
@@ -20115,13 +20175,13 @@
         <v>83</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>83</v>
+        <v>211</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>83</v>
+        <v>514</v>
       </c>
       <c r="Z147" t="s" s="2">
-        <v>83</v>
+        <v>515</v>
       </c>
       <c r="AA147" t="s" s="2">
         <v>83</v>
@@ -20139,7 +20199,7 @@
         <v>83</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>199</v>
+        <v>756</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>81</v>
@@ -20151,19 +20211,19 @@
         <v>83</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="AK147" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AL147" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AL147" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AM147" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN147" t="s" s="2">
-        <v>83</v>
+        <v>760</v>
       </c>
       <c r="AO147" t="s" s="2">
         <v>83</v>
@@ -20171,21 +20231,21 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>787</v>
+        <v>761</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>787</v>
+        <v>761</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
-        <v>179</v>
+        <v>83</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G148" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H148" t="s" s="2">
         <v>83</v>
@@ -20197,18 +20257,18 @@
         <v>83</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>136</v>
+        <v>310</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>202</v>
+        <v>762</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O148" s="2"/>
+        <v>763</v>
+      </c>
+      <c r="N148" s="2"/>
+      <c r="O148" t="s" s="2">
+        <v>764</v>
+      </c>
       <c r="P148" t="s" s="2">
         <v>83</v>
       </c>
@@ -20244,43 +20304,43 @@
         <v>83</v>
       </c>
       <c r="AB148" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="AC148" t="s" s="2">
-        <v>204</v>
+        <v>83</v>
       </c>
       <c r="AD148" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>205</v>
+        <v>761</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH148" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>83</v>
+        <v>765</v>
       </c>
       <c r="AJ148" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK148" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="AL148" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AL148" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AM148" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN148" t="s" s="2">
-        <v>83</v>
+        <v>767</v>
       </c>
       <c r="AO148" t="s" s="2">
         <v>83</v>
@@ -20288,10 +20348,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20305,26 +20365,24 @@
         <v>91</v>
       </c>
       <c r="H149" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I149" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>196</v>
+        <v>303</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>789</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>790</v>
-      </c>
+        <v>770</v>
+      </c>
+      <c r="N149" s="2"/>
       <c r="O149" s="2"/>
       <c r="P149" t="s" s="2">
         <v>83</v>
@@ -20373,7 +20431,7 @@
         <v>83</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>791</v>
+        <v>768</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>81</v>
@@ -20382,16 +20440,16 @@
         <v>91</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>792</v>
+        <v>83</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>134</v>
+        <v>771</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="AM149" t="s" s="2">
         <v>83</v>
@@ -20405,10 +20463,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>793</v>
+        <v>772</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>793</v>
+        <v>772</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20419,30 +20477,32 @@
         <v>81</v>
       </c>
       <c r="G150" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H150" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I150" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>105</v>
+        <v>691</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>794</v>
+        <v>773</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>795</v>
+        <v>773</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>796</v>
-      </c>
-      <c r="O150" s="2"/>
+        <v>774</v>
+      </c>
+      <c r="O150" t="s" s="2">
+        <v>775</v>
+      </c>
       <c r="P150" t="s" s="2">
         <v>83</v>
       </c>
@@ -20466,13 +20526,13 @@
         <v>83</v>
       </c>
       <c r="X150" t="s" s="2">
-        <v>797</v>
+        <v>83</v>
       </c>
       <c r="Y150" t="s" s="2">
-        <v>798</v>
+        <v>83</v>
       </c>
       <c r="Z150" t="s" s="2">
-        <v>799</v>
+        <v>83</v>
       </c>
       <c r="AA150" t="s" s="2">
         <v>83</v>
@@ -20490,13 +20550,13 @@
         <v>83</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>800</v>
+        <v>772</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH150" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI150" t="s" s="2">
         <v>83</v>
@@ -20505,10 +20565,10 @@
         <v>103</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>134</v>
+        <v>776</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>83</v>
+        <v>777</v>
       </c>
       <c r="AM150" t="s" s="2">
         <v>83</v>
@@ -20522,10 +20582,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>801</v>
+        <v>778</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>801</v>
+        <v>778</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -20545,20 +20605,18 @@
         <v>83</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>802</v>
+        <v>197</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>803</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>804</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N151" s="2"/>
       <c r="O151" s="2"/>
       <c r="P151" t="s" s="2">
         <v>83</v>
@@ -20607,7 +20665,7 @@
         <v>83</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>805</v>
+        <v>199</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>81</v>
@@ -20619,10 +20677,10 @@
         <v>83</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>806</v>
+        <v>200</v>
       </c>
       <c r="AL151" t="s" s="2">
         <v>83</v>
@@ -20639,42 +20697,42 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>807</v>
+        <v>779</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>807</v>
+        <v>779</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G152" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H152" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I152" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>808</v>
+        <v>202</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>808</v>
+        <v>203</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>809</v>
+        <v>182</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
@@ -20724,22 +20782,22 @@
         <v>83</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>810</v>
+        <v>205</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH152" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI152" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>134</v>
+        <v>200</v>
       </c>
       <c r="AL152" t="s" s="2">
         <v>83</v>
@@ -20756,45 +20814,45 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>811</v>
+        <v>780</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>811</v>
+        <v>780</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
-        <v>83</v>
+        <v>705</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G153" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H153" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I153" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="J153" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>310</v>
+        <v>136</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>812</v>
+        <v>706</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>813</v>
+        <v>707</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>814</v>
+        <v>182</v>
       </c>
       <c r="O153" t="s" s="2">
-        <v>815</v>
+        <v>183</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>83</v>
@@ -20843,25 +20901,25 @@
         <v>83</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>811</v>
+        <v>708</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH153" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI153" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>746</v>
+        <v>134</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>816</v>
+        <v>83</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>83</v>
@@ -20875,10 +20933,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>817</v>
+        <v>781</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>817</v>
+        <v>781</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20886,34 +20944,34 @@
       </c>
       <c r="E154" s="2"/>
       <c r="F154" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G154" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H154" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I154" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>671</v>
+        <v>217</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>818</v>
+        <v>782</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>819</v>
+        <v>783</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>820</v>
+        <v>784</v>
       </c>
       <c r="O154" t="s" s="2">
-        <v>821</v>
+        <v>785</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>83</v>
@@ -20938,13 +20996,13 @@
         <v>83</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>83</v>
+        <v>211</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>83</v>
+        <v>786</v>
       </c>
       <c r="Z154" t="s" s="2">
-        <v>83</v>
+        <v>787</v>
       </c>
       <c r="AA154" t="s" s="2">
         <v>83</v>
@@ -20962,13 +21020,13 @@
         <v>83</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>817</v>
+        <v>781</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AH154" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI154" t="s" s="2">
         <v>83</v>
@@ -20977,16 +21035,16 @@
         <v>103</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>822</v>
+        <v>788</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>200</v>
+        <v>789</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN154" t="s" s="2">
-        <v>83</v>
+        <v>790</v>
       </c>
       <c r="AO154" t="s" s="2">
         <v>83</v>
@@ -20994,10 +21052,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>823</v>
+        <v>791</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>823</v>
+        <v>791</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21020,16 +21078,20 @@
         <v>83</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>196</v>
+        <v>269</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>197</v>
+        <v>792</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N155" s="2"/>
-      <c r="O155" s="2"/>
+        <v>793</v>
+      </c>
+      <c r="N155" t="s" s="2">
+        <v>794</v>
+      </c>
+      <c r="O155" t="s" s="2">
+        <v>795</v>
+      </c>
       <c r="P155" t="s" s="2">
         <v>83</v>
       </c>
@@ -21077,7 +21139,7 @@
         <v>83</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>199</v>
+        <v>791</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>81</v>
@@ -21089,19 +21151,19 @@
         <v>83</v>
       </c>
       <c r="AJ155" t="s" s="2">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>200</v>
+        <v>796</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>83</v>
+        <v>797</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN155" t="s" s="2">
-        <v>83</v>
+        <v>798</v>
       </c>
       <c r="AO155" t="s" s="2">
         <v>83</v>
@@ -21109,14 +21171,14 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>824</v>
+        <v>799</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>824</v>
+        <v>799</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
-        <v>179</v>
+        <v>800</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" t="s" s="2">
@@ -21126,7 +21188,7 @@
         <v>82</v>
       </c>
       <c r="H156" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I156" t="s" s="2">
         <v>83</v>
@@ -21135,16 +21197,16 @@
         <v>83</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>136</v>
+        <v>801</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>202</v>
+        <v>802</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>203</v>
+        <v>802</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>182</v>
+        <v>803</v>
       </c>
       <c r="O156" s="2"/>
       <c r="P156" t="s" s="2">
@@ -21194,7 +21256,7 @@
         <v>83</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>205</v>
+        <v>799</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>81</v>
@@ -21206,19 +21268,19 @@
         <v>83</v>
       </c>
       <c r="AJ156" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK156" t="s" s="2">
+        <v>804</v>
+      </c>
+      <c r="AL156" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AL156" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AM156" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN156" t="s" s="2">
-        <v>83</v>
+        <v>805</v>
       </c>
       <c r="AO156" t="s" s="2">
         <v>83</v>
@@ -21226,46 +21288,42 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
-        <v>685</v>
+        <v>83</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G157" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H157" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I157" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>686</v>
+        <v>197</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="N157" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O157" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N157" s="2"/>
+      <c r="O157" s="2"/>
       <c r="P157" t="s" s="2">
         <v>83</v>
       </c>
@@ -21313,22 +21371,22 @@
         <v>83</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>688</v>
+        <v>199</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH157" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI157" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ157" t="s" s="2">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>134</v>
+        <v>200</v>
       </c>
       <c r="AL157" t="s" s="2">
         <v>83</v>
@@ -21345,21 +21403,21 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G158" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H158" t="s" s="2">
         <v>83</v>
@@ -21368,19 +21426,19 @@
         <v>83</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>827</v>
+        <v>136</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>828</v>
+        <v>202</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>829</v>
+        <v>203</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>830</v>
+        <v>182</v>
       </c>
       <c r="O158" s="2"/>
       <c r="P158" t="s" s="2">
@@ -21418,43 +21476,43 @@
         <v>83</v>
       </c>
       <c r="AB158" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="AC158" t="s" s="2">
-        <v>83</v>
+        <v>204</v>
       </c>
       <c r="AD158" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>826</v>
+        <v>205</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AH158" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI158" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="AM158" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN158" t="s" s="2">
-        <v>831</v>
+        <v>83</v>
       </c>
       <c r="AO158" t="s" s="2">
         <v>83</v>
@@ -21462,10 +21520,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>832</v>
+        <v>808</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>832</v>
+        <v>808</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21473,13 +21531,13 @@
       </c>
       <c r="E159" s="2"/>
       <c r="F159" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G159" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H159" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I159" t="s" s="2">
         <v>83</v>
@@ -21488,15 +21546,17 @@
         <v>92</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>833</v>
+        <v>809</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>834</v>
-      </c>
-      <c r="N159" s="2"/>
+        <v>809</v>
+      </c>
+      <c r="N159" t="s" s="2">
+        <v>810</v>
+      </c>
       <c r="O159" s="2"/>
       <c r="P159" t="s" s="2">
         <v>83</v>
@@ -21521,13 +21581,13 @@
         <v>83</v>
       </c>
       <c r="X159" t="s" s="2">
-        <v>211</v>
+        <v>83</v>
       </c>
       <c r="Y159" t="s" s="2">
-        <v>834</v>
+        <v>83</v>
       </c>
       <c r="Z159" t="s" s="2">
-        <v>835</v>
+        <v>83</v>
       </c>
       <c r="AA159" t="s" s="2">
         <v>83</v>
@@ -21545,38 +21605,1210 @@
         <v>83</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>832</v>
+        <v>811</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AI159" t="s" s="2">
-        <v>83</v>
+        <v>812</v>
       </c>
       <c r="AJ159" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK159" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AL159" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM159" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN159" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO159" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="160" hidden="true">
+      <c r="A160" t="s" s="2">
+        <v>813</v>
+      </c>
+      <c r="B160" t="s" s="2">
+        <v>813</v>
+      </c>
+      <c r="C160" s="2"/>
+      <c r="D160" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E160" s="2"/>
+      <c r="F160" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G160" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H160" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I160" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J160" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K160" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L160" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="M160" t="s" s="2">
+        <v>815</v>
+      </c>
+      <c r="N160" t="s" s="2">
+        <v>816</v>
+      </c>
+      <c r="O160" s="2"/>
+      <c r="P160" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q160" s="2"/>
+      <c r="R160" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S160" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T160" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U160" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V160" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W160" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X160" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="Y160" t="s" s="2">
+        <v>818</v>
+      </c>
+      <c r="Z160" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="AA160" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB160" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC160" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD160" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE160" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF160" t="s" s="2">
+        <v>820</v>
+      </c>
+      <c r="AG160" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH160" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI160" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ160" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK160" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AL160" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM160" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN160" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO160" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="161" hidden="true">
+      <c r="A161" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="B161" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="C161" s="2"/>
+      <c r="D161" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E161" s="2"/>
+      <c r="F161" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G161" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H161" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I161" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J161" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K161" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L161" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="M161" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="N161" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="O161" s="2"/>
+      <c r="P161" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q161" s="2"/>
+      <c r="R161" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S161" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T161" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U161" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V161" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W161" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X161" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y161" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z161" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA161" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB161" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC161" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD161" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE161" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF161" t="s" s="2">
+        <v>825</v>
+      </c>
+      <c r="AG161" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH161" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI161" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ161" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK161" t="s" s="2">
+        <v>826</v>
+      </c>
+      <c r="AL161" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM161" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN161" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO161" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="162" hidden="true">
+      <c r="A162" t="s" s="2">
+        <v>827</v>
+      </c>
+      <c r="B162" t="s" s="2">
+        <v>827</v>
+      </c>
+      <c r="C162" s="2"/>
+      <c r="D162" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E162" s="2"/>
+      <c r="F162" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G162" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H162" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="I162" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J162" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K162" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L162" t="s" s="2">
+        <v>828</v>
+      </c>
+      <c r="M162" t="s" s="2">
+        <v>828</v>
+      </c>
+      <c r="N162" t="s" s="2">
+        <v>829</v>
+      </c>
+      <c r="O162" s="2"/>
+      <c r="P162" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q162" s="2"/>
+      <c r="R162" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S162" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T162" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U162" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V162" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W162" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X162" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y162" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z162" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA162" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB162" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC162" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD162" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE162" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF162" t="s" s="2">
+        <v>830</v>
+      </c>
+      <c r="AG162" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH162" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI162" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ162" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK162" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AL162" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM162" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN162" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO162" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="163" hidden="true">
+      <c r="A163" t="s" s="2">
+        <v>831</v>
+      </c>
+      <c r="B163" t="s" s="2">
+        <v>831</v>
+      </c>
+      <c r="C163" s="2"/>
+      <c r="D163" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E163" s="2"/>
+      <c r="F163" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G163" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H163" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I163" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J163" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K163" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L163" t="s" s="2">
+        <v>832</v>
+      </c>
+      <c r="M163" t="s" s="2">
+        <v>833</v>
+      </c>
+      <c r="N163" t="s" s="2">
+        <v>834</v>
+      </c>
+      <c r="O163" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="P163" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q163" s="2"/>
+      <c r="R163" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S163" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T163" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U163" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V163" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W163" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X163" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y163" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z163" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA163" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB163" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC163" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD163" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE163" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF163" t="s" s="2">
+        <v>831</v>
+      </c>
+      <c r="AG163" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH163" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI163" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ163" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK163" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="AL163" t="s" s="2">
         <v>836</v>
       </c>
-      <c r="AL159" t="s" s="2">
+      <c r="AM163" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN163" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO163" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="164" hidden="true">
+      <c r="A164" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="B164" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="C164" s="2"/>
+      <c r="D164" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E164" s="2"/>
+      <c r="F164" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G164" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H164" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I164" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J164" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K164" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="L164" t="s" s="2">
+        <v>838</v>
+      </c>
+      <c r="M164" t="s" s="2">
+        <v>839</v>
+      </c>
+      <c r="N164" t="s" s="2">
+        <v>840</v>
+      </c>
+      <c r="O164" t="s" s="2">
+        <v>841</v>
+      </c>
+      <c r="P164" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q164" s="2"/>
+      <c r="R164" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S164" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T164" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U164" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V164" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W164" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X164" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y164" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z164" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA164" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB164" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC164" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD164" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE164" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF164" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="AG164" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH164" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI164" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ164" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK164" t="s" s="2">
+        <v>842</v>
+      </c>
+      <c r="AL164" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AM159" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN159" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO159" t="s" s="2">
+      <c r="AM164" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN164" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO164" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="165" hidden="true">
+      <c r="A165" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="B165" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="C165" s="2"/>
+      <c r="D165" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E165" s="2"/>
+      <c r="F165" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G165" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H165" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I165" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J165" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K165" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L165" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M165" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N165" s="2"/>
+      <c r="O165" s="2"/>
+      <c r="P165" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q165" s="2"/>
+      <c r="R165" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S165" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T165" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U165" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V165" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W165" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X165" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y165" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z165" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA165" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB165" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC165" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD165" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE165" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF165" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AG165" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH165" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI165" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ165" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK165" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AL165" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM165" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN165" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO165" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="166" hidden="true">
+      <c r="A166" t="s" s="2">
+        <v>844</v>
+      </c>
+      <c r="B166" t="s" s="2">
+        <v>844</v>
+      </c>
+      <c r="C166" s="2"/>
+      <c r="D166" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="E166" s="2"/>
+      <c r="F166" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G166" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H166" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I166" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J166" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K166" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L166" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M166" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N166" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O166" s="2"/>
+      <c r="P166" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q166" s="2"/>
+      <c r="R166" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S166" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T166" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U166" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V166" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W166" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X166" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y166" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z166" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA166" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB166" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC166" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD166" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE166" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF166" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AG166" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH166" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI166" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ166" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK166" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AL166" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM166" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN166" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO166" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="167" hidden="true">
+      <c r="A167" t="s" s="2">
+        <v>845</v>
+      </c>
+      <c r="B167" t="s" s="2">
+        <v>845</v>
+      </c>
+      <c r="C167" s="2"/>
+      <c r="D167" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="E167" s="2"/>
+      <c r="F167" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G167" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H167" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I167" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J167" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K167" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L167" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="M167" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="N167" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O167" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="P167" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q167" s="2"/>
+      <c r="R167" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S167" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T167" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U167" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V167" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W167" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X167" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y167" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z167" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA167" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB167" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC167" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD167" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE167" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF167" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="AG167" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH167" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI167" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ167" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK167" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AL167" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM167" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN167" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO167" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="168" hidden="true">
+      <c r="A168" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="B168" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="C168" s="2"/>
+      <c r="D168" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E168" s="2"/>
+      <c r="F168" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G168" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H168" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I168" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J168" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K168" t="s" s="2">
+        <v>847</v>
+      </c>
+      <c r="L168" t="s" s="2">
+        <v>848</v>
+      </c>
+      <c r="M168" t="s" s="2">
+        <v>849</v>
+      </c>
+      <c r="N168" t="s" s="2">
+        <v>850</v>
+      </c>
+      <c r="O168" s="2"/>
+      <c r="P168" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q168" s="2"/>
+      <c r="R168" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S168" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T168" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U168" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V168" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W168" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X168" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y168" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z168" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA168" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB168" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC168" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD168" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE168" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF168" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="AG168" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH168" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI168" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ168" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK168" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AL168" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AM168" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN168" t="s" s="2">
+        <v>851</v>
+      </c>
+      <c r="AO168" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="169" hidden="true">
+      <c r="A169" t="s" s="2">
+        <v>852</v>
+      </c>
+      <c r="B169" t="s" s="2">
+        <v>852</v>
+      </c>
+      <c r="C169" s="2"/>
+      <c r="D169" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E169" s="2"/>
+      <c r="F169" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G169" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H169" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I169" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J169" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K169" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L169" t="s" s="2">
+        <v>853</v>
+      </c>
+      <c r="M169" t="s" s="2">
+        <v>854</v>
+      </c>
+      <c r="N169" s="2"/>
+      <c r="O169" s="2"/>
+      <c r="P169" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q169" s="2"/>
+      <c r="R169" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S169" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T169" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U169" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V169" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W169" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X169" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="Y169" t="s" s="2">
+        <v>854</v>
+      </c>
+      <c r="Z169" t="s" s="2">
+        <v>855</v>
+      </c>
+      <c r="AA169" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB169" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC169" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD169" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE169" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF169" t="s" s="2">
+        <v>852</v>
+      </c>
+      <c r="AG169" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH169" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI169" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ169" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK169" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="AL169" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AM169" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN169" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO169" t="s" s="2">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO159">
+  <autoFilter ref="A1:AO169">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -21586,7 +22818,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI158">
+  <conditionalFormatting sqref="A2:AI168">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/fhir/ig/urgencia/StructureDefinition-PatientUrg.xlsx
+++ b/fhir/ig/urgencia/StructureDefinition-PatientUrg.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$168</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6283" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6246" uniqueCount="852">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T10:10:51-03:00</t>
+    <t>2024-12-16T14:50:05-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1720,22 +1720,6 @@
   </si>
   <si>
     <t>The extension can be further extended to include unique geolocation identifiers, confidence, altitude, etc.</t>
-  </si>
-  <si>
-    <t>Patient.address.extension:TipoViaResidencia</t>
-  </si>
-  <si>
-    <t>TipoViaResidencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/urgencia/StructureDefinition/TipoViaResidencia}
-</t>
-  </si>
-  <si>
-    <t>Tipo de vía de la dirección de residencia</t>
-  </si>
-  <si>
-    <t>Corresponde al tipo o clasificación de la vía</t>
   </si>
   <si>
     <t>Patient.address.use</t>
@@ -3005,7 +2989,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO169"/>
+  <dimension ref="A1:AO168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -13607,17 +13591,15 @@
         <v>552</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="C91" t="s" s="2">
-        <v>553</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>91</v>
@@ -13626,22 +13608,26 @@
         <v>92</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="O91" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>83</v>
       </c>
@@ -13653,7 +13639,7 @@
         <v>83</v>
       </c>
       <c r="T91" t="s" s="2">
-        <v>83</v>
+        <v>557</v>
       </c>
       <c r="U91" t="s" s="2">
         <v>83</v>
@@ -13665,13 +13651,13 @@
         <v>83</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>83</v>
+        <v>211</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>83</v>
+        <v>558</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>83</v>
+        <v>559</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>83</v>
@@ -13689,22 +13675,22 @@
         <v>83</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>205</v>
+        <v>560</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>83</v>
+        <v>353</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>83</v>
@@ -13713,7 +13699,7 @@
         <v>83</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>83</v>
+        <v>561</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>83</v>
@@ -13721,10 +13707,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13732,16 +13718,16 @@
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J92" t="s" s="2">
         <v>92</v>
@@ -13750,17 +13736,15 @@
         <v>111</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>561</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>83</v>
       </c>
@@ -13772,7 +13756,7 @@
         <v>83</v>
       </c>
       <c r="T92" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="U92" t="s" s="2">
         <v>83</v>
@@ -13787,10 +13771,10 @@
         <v>211</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>83</v>
@@ -13808,7 +13792,7 @@
         <v>83</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>81</v>
@@ -13832,7 +13816,7 @@
         <v>83</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>83</v>
@@ -13840,10 +13824,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13866,18 +13850,20 @@
         <v>92</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="O93" s="2"/>
+        <v>574</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="P93" t="s" s="2">
         <v>83</v>
       </c>
@@ -13889,7 +13875,7 @@
         <v>83</v>
       </c>
       <c r="T93" t="s" s="2">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="U93" t="s" s="2">
         <v>83</v>
@@ -13901,13 +13887,13 @@
         <v>83</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>211</v>
+        <v>83</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>572</v>
+        <v>83</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>573</v>
+        <v>83</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>83</v>
@@ -13925,7 +13911,7 @@
         <v>83</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>81</v>
@@ -13940,7 +13926,7 @@
         <v>103</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>83</v>
@@ -13949,7 +13935,7 @@
         <v>83</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>83</v>
@@ -13957,10 +13943,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13968,13 +13954,13 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>83</v>
@@ -13986,17 +13972,13 @@
         <v>196</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="N94" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="O94" t="s" s="2">
-        <v>360</v>
-      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>83</v>
       </c>
@@ -14050,7 +14032,7 @@
         <v>81</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>83</v>
@@ -14059,7 +14041,7 @@
         <v>103</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>362</v>
+        <v>582</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>83</v>
@@ -14068,7 +14050,7 @@
         <v>83</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>83</v>
@@ -14076,18 +14058,18 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>83</v>
+        <v>585</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>91</v>
@@ -14105,10 +14087,10 @@
         <v>196</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -14123,7 +14105,7 @@
         <v>83</v>
       </c>
       <c r="T95" t="s" s="2">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="U95" t="s" s="2">
         <v>83</v>
@@ -14159,13 +14141,13 @@
         <v>83</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>83</v>
@@ -14174,7 +14156,7 @@
         <v>103</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>83</v>
@@ -14183,7 +14165,7 @@
         <v>83</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>83</v>
@@ -14191,14 +14173,14 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>590</v>
+        <v>83</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -14208,22 +14190,22 @@
         <v>91</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K96" t="s" s="2">
         <v>196</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>591</v>
+        <v>375</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>592</v>
+        <v>376</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -14238,7 +14220,7 @@
         <v>83</v>
       </c>
       <c r="T96" t="s" s="2">
-        <v>593</v>
+        <v>83</v>
       </c>
       <c r="U96" t="s" s="2">
         <v>83</v>
@@ -14274,7 +14256,7 @@
         <v>83</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>594</v>
+        <v>199</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>81</v>
@@ -14286,10 +14268,10 @@
         <v>83</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>595</v>
+        <v>83</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>83</v>
@@ -14298,7 +14280,7 @@
         <v>83</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>596</v>
+        <v>83</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>83</v>
@@ -14306,10 +14288,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14317,10 +14299,10 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>83</v>
@@ -14332,13 +14314,13 @@
         <v>83</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>375</v>
+        <v>594</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>376</v>
+        <v>594</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -14377,31 +14359,29 @@
         <v>83</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AC97" s="2"/>
       <c r="AD97" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>83</v>
@@ -14421,12 +14401,14 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="C98" s="2"/>
+        <v>593</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>596</v>
+      </c>
       <c r="D98" t="s" s="2">
         <v>83</v>
       </c>
@@ -14435,10 +14417,10 @@
         <v>91</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>83</v>
@@ -14447,10 +14429,10 @@
         <v>83</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>136</v>
+        <v>597</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="M98" t="s" s="2">
         <v>599</v>
@@ -14492,14 +14474,16 @@
         <v>83</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC98" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD98" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>205</v>
@@ -14511,7 +14495,7 @@
         <v>82</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>142</v>
@@ -14537,23 +14521,21 @@
         <v>600</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="C99" t="s" s="2">
-        <v>601</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>83</v>
@@ -14562,13 +14544,13 @@
         <v>83</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>602</v>
+        <v>196</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>603</v>
+        <v>387</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>604</v>
+        <v>388</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -14592,7 +14574,7 @@
         <v>83</v>
       </c>
       <c r="W99" t="s" s="2">
-        <v>83</v>
+        <v>389</v>
       </c>
       <c r="X99" t="s" s="2">
         <v>83</v>
@@ -14619,19 +14601,19 @@
         <v>83</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>205</v>
+        <v>390</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>83</v>
@@ -14651,14 +14633,14 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>83</v>
+        <v>602</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
@@ -14668,24 +14650,26 @@
         <v>91</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K100" t="s" s="2">
         <v>196</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>387</v>
+        <v>603</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N100" s="2"/>
+        <v>604</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>605</v>
+      </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>83</v>
@@ -14698,7 +14682,7 @@
         <v>83</v>
       </c>
       <c r="T100" t="s" s="2">
-        <v>83</v>
+        <v>606</v>
       </c>
       <c r="U100" t="s" s="2">
         <v>83</v>
@@ -14707,7 +14691,7 @@
         <v>83</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>389</v>
+        <v>83</v>
       </c>
       <c r="X100" t="s" s="2">
         <v>83</v>
@@ -14734,7 +14718,7 @@
         <v>83</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>390</v>
+        <v>607</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>81</v>
@@ -14746,10 +14730,10 @@
         <v>83</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>83</v>
+        <v>608</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>83</v>
@@ -14758,7 +14742,7 @@
         <v>83</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>83</v>
+        <v>609</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>83</v>
@@ -14766,14 +14750,14 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>607</v>
+        <v>83</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -14783,26 +14767,24 @@
         <v>91</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I101" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K101" t="s" s="2">
         <v>196</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>608</v>
+        <v>375</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>610</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="N101" s="2"/>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>83</v>
@@ -14815,7 +14797,7 @@
         <v>83</v>
       </c>
       <c r="T101" t="s" s="2">
-        <v>611</v>
+        <v>83</v>
       </c>
       <c r="U101" t="s" s="2">
         <v>83</v>
@@ -14851,7 +14833,7 @@
         <v>83</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>612</v>
+        <v>199</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>81</v>
@@ -14863,10 +14845,10 @@
         <v>83</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>613</v>
+        <v>83</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>83</v>
@@ -14875,7 +14857,7 @@
         <v>83</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>614</v>
+        <v>83</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>83</v>
@@ -14883,10 +14865,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14894,10 +14876,10 @@
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>83</v>
@@ -14909,13 +14891,13 @@
         <v>83</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>375</v>
+        <v>612</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>376</v>
+        <v>612</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -14954,31 +14936,29 @@
         <v>83</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AC102" s="2"/>
       <c r="AD102" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>83</v>
@@ -14998,12 +14978,14 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="C103" s="2"/>
+        <v>611</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>614</v>
+      </c>
       <c r="D103" t="s" s="2">
         <v>83</v>
       </c>
@@ -15012,10 +14994,10 @@
         <v>91</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I103" t="s" s="2">
         <v>83</v>
@@ -15024,10 +15006,10 @@
         <v>83</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>136</v>
+        <v>615</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M103" t="s" s="2">
         <v>617</v>
@@ -15069,14 +15051,16 @@
         <v>83</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC103" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD103" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>205</v>
@@ -15088,7 +15072,7 @@
         <v>82</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>142</v>
@@ -15114,23 +15098,21 @@
         <v>618</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="C104" t="s" s="2">
-        <v>619</v>
-      </c>
+        <v>618</v>
+      </c>
+      <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I104" t="s" s="2">
         <v>83</v>
@@ -15139,13 +15121,13 @@
         <v>83</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>620</v>
+        <v>196</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>621</v>
+        <v>387</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>622</v>
+        <v>388</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -15169,7 +15151,7 @@
         <v>83</v>
       </c>
       <c r="W104" t="s" s="2">
-        <v>83</v>
+        <v>389</v>
       </c>
       <c r="X104" t="s" s="2">
         <v>83</v>
@@ -15196,19 +15178,19 @@
         <v>83</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>205</v>
+        <v>390</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>83</v>
@@ -15228,14 +15210,14 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>83</v>
+        <v>620</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -15245,22 +15227,22 @@
         <v>91</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I105" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K105" t="s" s="2">
         <v>196</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>387</v>
+        <v>621</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>388</v>
+        <v>622</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -15284,7 +15266,7 @@
         <v>83</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>389</v>
+        <v>83</v>
       </c>
       <c r="X105" t="s" s="2">
         <v>83</v>
@@ -15311,7 +15293,7 @@
         <v>83</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>390</v>
+        <v>623</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>81</v>
@@ -15323,10 +15305,10 @@
         <v>83</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>83</v>
+        <v>624</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>83</v>
@@ -15335,7 +15317,7 @@
         <v>83</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>83</v>
+        <v>625</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>83</v>
@@ -15343,14 +15325,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>625</v>
+        <v>83</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -15360,22 +15342,22 @@
         <v>91</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I106" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K106" t="s" s="2">
         <v>196</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>626</v>
+        <v>375</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>627</v>
+        <v>376</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -15426,7 +15408,7 @@
         <v>83</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>628</v>
+        <v>199</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>81</v>
@@ -15438,10 +15420,10 @@
         <v>83</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>629</v>
+        <v>83</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>83</v>
@@ -15450,7 +15432,7 @@
         <v>83</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>630</v>
+        <v>83</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>83</v>
@@ -15458,10 +15440,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15469,10 +15451,10 @@
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>83</v>
@@ -15484,13 +15466,13 @@
         <v>83</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>375</v>
+        <v>612</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>376</v>
+        <v>612</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15529,31 +15511,29 @@
         <v>83</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AC107" s="2"/>
       <c r="AD107" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>83</v>
@@ -15573,12 +15553,14 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="C108" s="2"/>
+        <v>627</v>
+      </c>
+      <c r="C108" t="s" s="2">
+        <v>629</v>
+      </c>
       <c r="D108" t="s" s="2">
         <v>83</v>
       </c>
@@ -15587,10 +15569,10 @@
         <v>91</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I108" t="s" s="2">
         <v>83</v>
@@ -15599,13 +15581,13 @@
         <v>83</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>136</v>
+        <v>630</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>617</v>
+        <v>631</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -15644,14 +15626,16 @@
         <v>83</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC108" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD108" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>205</v>
@@ -15663,7 +15647,7 @@
         <v>82</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>142</v>
@@ -15689,23 +15673,21 @@
         <v>633</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="C109" t="s" s="2">
-        <v>634</v>
-      </c>
+        <v>633</v>
+      </c>
+      <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I109" t="s" s="2">
         <v>83</v>
@@ -15714,13 +15696,13 @@
         <v>83</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>635</v>
+        <v>196</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>636</v>
+        <v>387</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>637</v>
+        <v>388</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -15744,7 +15726,7 @@
         <v>83</v>
       </c>
       <c r="W109" t="s" s="2">
-        <v>83</v>
+        <v>389</v>
       </c>
       <c r="X109" t="s" s="2">
         <v>83</v>
@@ -15771,19 +15753,19 @@
         <v>83</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>205</v>
+        <v>390</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>83</v>
@@ -15803,14 +15785,14 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>83</v>
+        <v>635</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -15826,16 +15808,16 @@
         <v>83</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K110" t="s" s="2">
         <v>196</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>387</v>
+        <v>636</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>388</v>
+        <v>637</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -15850,7 +15832,7 @@
         <v>83</v>
       </c>
       <c r="T110" t="s" s="2">
-        <v>83</v>
+        <v>638</v>
       </c>
       <c r="U110" t="s" s="2">
         <v>83</v>
@@ -15859,7 +15841,7 @@
         <v>83</v>
       </c>
       <c r="W110" t="s" s="2">
-        <v>389</v>
+        <v>83</v>
       </c>
       <c r="X110" t="s" s="2">
         <v>83</v>
@@ -15886,7 +15868,7 @@
         <v>83</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>390</v>
+        <v>639</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>81</v>
@@ -15898,10 +15880,10 @@
         <v>83</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>83</v>
+        <v>640</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>83</v>
@@ -15910,7 +15892,7 @@
         <v>83</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>83</v>
+        <v>641</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>83</v>
@@ -15918,14 +15900,14 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>640</v>
+        <v>83</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
@@ -15935,7 +15917,7 @@
         <v>91</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I111" t="s" s="2">
         <v>83</v>
@@ -15947,12 +15929,14 @@
         <v>196</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="N111" s="2"/>
+        <v>643</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>644</v>
+      </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>83</v>
@@ -15965,7 +15949,7 @@
         <v>83</v>
       </c>
       <c r="T111" t="s" s="2">
-        <v>643</v>
+        <v>83</v>
       </c>
       <c r="U111" t="s" s="2">
         <v>83</v>
@@ -16001,7 +15985,7 @@
         <v>83</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>81</v>
@@ -16016,7 +16000,7 @@
         <v>103</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>83</v>
@@ -16025,7 +16009,7 @@
         <v>83</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>83</v>
@@ -16033,10 +16017,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16050,26 +16034,24 @@
         <v>91</v>
       </c>
       <c r="H112" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I112" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K112" t="s" s="2">
         <v>196</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>648</v>
+        <v>375</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>649</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="N112" s="2"/>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>83</v>
@@ -16118,7 +16100,7 @@
         <v>83</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>650</v>
+        <v>199</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>81</v>
@@ -16130,10 +16112,10 @@
         <v>83</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>651</v>
+        <v>83</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>83</v>
@@ -16142,7 +16124,7 @@
         <v>83</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>652</v>
+        <v>83</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>83</v>
@@ -16150,10 +16132,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16161,10 +16143,10 @@
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>83</v>
@@ -16176,13 +16158,13 @@
         <v>83</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>375</v>
+        <v>650</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>376</v>
+        <v>650</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -16221,31 +16203,29 @@
         <v>83</v>
       </c>
       <c r="AB113" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AC113" s="2"/>
       <c r="AD113" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>83</v>
@@ -16265,12 +16245,14 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="C114" s="2"/>
+        <v>649</v>
+      </c>
+      <c r="C114" t="s" s="2">
+        <v>652</v>
+      </c>
       <c r="D114" t="s" s="2">
         <v>83</v>
       </c>
@@ -16279,10 +16261,10 @@
         <v>91</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H114" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I114" t="s" s="2">
         <v>83</v>
@@ -16291,13 +16273,13 @@
         <v>83</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>655</v>
+        <v>155</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>655</v>
+        <v>156</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -16336,14 +16318,16 @@
         <v>83</v>
       </c>
       <c r="AB114" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC114" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD114" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>205</v>
@@ -16355,7 +16339,7 @@
         <v>82</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>142</v>
@@ -16378,26 +16362,24 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="C115" t="s" s="2">
-        <v>657</v>
-      </c>
+        <v>653</v>
+      </c>
+      <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H115" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I115" t="s" s="2">
         <v>83</v>
@@ -16406,13 +16388,13 @@
         <v>83</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>155</v>
+        <v>387</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>156</v>
+        <v>388</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -16436,7 +16418,7 @@
         <v>83</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>83</v>
+        <v>389</v>
       </c>
       <c r="X115" t="s" s="2">
         <v>83</v>
@@ -16463,19 +16445,19 @@
         <v>83</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>205</v>
+        <v>390</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>83</v>
@@ -16495,10 +16477,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16512,25 +16494,27 @@
         <v>91</v>
       </c>
       <c r="H116" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I116" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>196</v>
+        <v>303</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>387</v>
+        <v>655</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>388</v>
+        <v>656</v>
       </c>
       <c r="N116" s="2"/>
-      <c r="O116" s="2"/>
+      <c r="O116" t="s" s="2">
+        <v>657</v>
+      </c>
       <c r="P116" t="s" s="2">
         <v>83</v>
       </c>
@@ -16542,7 +16526,7 @@
         <v>83</v>
       </c>
       <c r="T116" t="s" s="2">
-        <v>83</v>
+        <v>658</v>
       </c>
       <c r="U116" t="s" s="2">
         <v>83</v>
@@ -16551,7 +16535,7 @@
         <v>83</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>389</v>
+        <v>83</v>
       </c>
       <c r="X116" t="s" s="2">
         <v>83</v>
@@ -16578,7 +16562,7 @@
         <v>83</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>390</v>
+        <v>659</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>81</v>
@@ -16590,10 +16574,10 @@
         <v>83</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>83</v>
+        <v>420</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>83</v>
@@ -16602,7 +16586,7 @@
         <v>83</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>83</v>
+        <v>660</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>83</v>
@@ -16610,10 +16594,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16633,20 +16617,20 @@
         <v>83</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>303</v>
+        <v>217</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>83</v>
@@ -16659,7 +16643,7 @@
         <v>83</v>
       </c>
       <c r="T117" t="s" s="2">
-        <v>663</v>
+        <v>83</v>
       </c>
       <c r="U117" t="s" s="2">
         <v>83</v>
@@ -16671,13 +16655,11 @@
         <v>83</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y117" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="Y117" s="2"/>
       <c r="Z117" t="s" s="2">
-        <v>83</v>
+        <v>665</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>83</v>
@@ -16695,7 +16677,7 @@
         <v>83</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>81</v>
@@ -16710,16 +16692,16 @@
         <v>103</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>420</v>
+        <v>666</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>83</v>
+        <v>667</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>83</v>
@@ -16727,10 +16709,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16744,7 +16726,7 @@
         <v>91</v>
       </c>
       <c r="H118" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I118" t="s" s="2">
         <v>83</v>
@@ -16753,17 +16735,19 @@
         <v>83</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>217</v>
+        <v>670</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="N118" s="2"/>
+        <v>672</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>673</v>
+      </c>
       <c r="O118" t="s" s="2">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>83</v>
@@ -16788,11 +16772,13 @@
         <v>83</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="Y118" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="Z118" t="s" s="2">
-        <v>670</v>
+        <v>83</v>
       </c>
       <c r="AA118" t="s" s="2">
         <v>83</v>
@@ -16810,7 +16796,7 @@
         <v>83</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>81</v>
@@ -16825,16 +16811,16 @@
         <v>103</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>672</v>
+        <v>200</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>83</v>
@@ -16842,10 +16828,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16856,7 +16842,7 @@
         <v>81</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>83</v>
@@ -16868,19 +16854,19 @@
         <v>83</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="O119" t="s" s="2">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>83</v>
@@ -16929,13 +16915,13 @@
         <v>83</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>83</v>
@@ -16944,7 +16930,7 @@
         <v>103</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>200</v>
@@ -16953,7 +16939,7 @@
         <v>83</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>83</v>
@@ -16961,10 +16947,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16978,7 +16964,7 @@
         <v>82</v>
       </c>
       <c r="H120" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I120" t="s" s="2">
         <v>83</v>
@@ -16987,19 +16973,19 @@
         <v>83</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>83</v>
@@ -17048,7 +17034,7 @@
         <v>83</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>81</v>
@@ -17060,10 +17046,10 @@
         <v>83</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>103</v>
+        <v>690</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>200</v>
@@ -17072,7 +17058,7 @@
         <v>83</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>689</v>
+        <v>83</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>83</v>
@@ -17080,10 +17066,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17094,10 +17080,10 @@
         <v>81</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H121" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I121" t="s" s="2">
         <v>83</v>
@@ -17106,20 +17092,16 @@
         <v>83</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>691</v>
+        <v>196</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>692</v>
+        <v>197</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>692</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>693</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>694</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N121" s="2"/>
+      <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
         <v>83</v>
       </c>
@@ -17167,25 +17149,25 @@
         <v>83</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>690</v>
+        <v>199</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>695</v>
+        <v>83</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>696</v>
+        <v>200</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>83</v>
@@ -17199,10 +17181,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17213,7 +17195,7 @@
         <v>81</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H122" t="s" s="2">
         <v>83</v>
@@ -17225,13 +17207,13 @@
         <v>83</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>198</v>
+        <v>138</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -17270,34 +17252,32 @@
         <v>83</v>
       </c>
       <c r="AB122" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC122" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AC122" s="2"/>
       <c r="AD122" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>83</v>
@@ -17314,12 +17294,14 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="C123" s="2"/>
+        <v>693</v>
+      </c>
+      <c r="C123" t="s" s="2">
+        <v>695</v>
+      </c>
       <c r="D123" t="s" s="2">
         <v>83</v>
       </c>
@@ -17331,7 +17313,7 @@
         <v>82</v>
       </c>
       <c r="H123" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I123" t="s" s="2">
         <v>83</v>
@@ -17340,13 +17322,13 @@
         <v>83</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>136</v>
+        <v>696</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>137</v>
+        <v>697</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>138</v>
+        <v>698</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -17385,14 +17367,16 @@
         <v>83</v>
       </c>
       <c r="AB123" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC123" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC123" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD123" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>205</v>
@@ -17404,7 +17388,7 @@
         <v>82</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>142</v>
@@ -17430,13 +17414,11 @@
         <v>699</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="C124" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="C124" s="2"/>
+      <c r="D124" t="s" s="2">
         <v>700</v>
-      </c>
-      <c r="D124" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
@@ -17446,25 +17428,29 @@
         <v>82</v>
       </c>
       <c r="H124" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I124" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="I124" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J124" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K124" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L124" t="s" s="2">
         <v>701</v>
       </c>
-      <c r="L124" t="s" s="2">
+      <c r="M124" t="s" s="2">
         <v>702</v>
       </c>
-      <c r="M124" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="N124" s="2"/>
-      <c r="O124" s="2"/>
+      <c r="N124" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O124" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="P124" t="s" s="2">
         <v>83</v>
       </c>
@@ -17512,7 +17498,7 @@
         <v>83</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>205</v>
+        <v>703</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>81</v>
@@ -17521,13 +17507,13 @@
         <v>82</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>142</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>83</v>
@@ -17551,7 +17537,7 @@
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>705</v>
+        <v>83</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
@@ -17561,28 +17547,26 @@
         <v>82</v>
       </c>
       <c r="H125" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="L125" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="M125" t="s" s="2">
         <v>706</v>
       </c>
-      <c r="M125" t="s" s="2">
+      <c r="N125" s="2"/>
+      <c r="O125" t="s" s="2">
         <v>707</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O125" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>83</v>
@@ -17607,13 +17591,13 @@
         <v>83</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>83</v>
+        <v>211</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>83</v>
+        <v>708</v>
       </c>
       <c r="Z125" t="s" s="2">
-        <v>83</v>
+        <v>709</v>
       </c>
       <c r="AA125" t="s" s="2">
         <v>83</v>
@@ -17631,7 +17615,7 @@
         <v>83</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>81</v>
@@ -17643,19 +17627,19 @@
         <v>83</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>134</v>
+        <v>710</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>83</v>
+        <v>711</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>83</v>
@@ -17663,10 +17647,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17677,10 +17661,10 @@
         <v>81</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H126" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I126" t="s" s="2">
         <v>83</v>
@@ -17689,18 +17673,16 @@
         <v>83</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>710</v>
+        <v>197</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>711</v>
+        <v>198</v>
       </c>
       <c r="N126" s="2"/>
-      <c r="O126" t="s" s="2">
-        <v>712</v>
-      </c>
+      <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
         <v>83</v>
       </c>
@@ -17724,13 +17706,13 @@
         <v>83</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>211</v>
+        <v>83</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>713</v>
+        <v>83</v>
       </c>
       <c r="Z126" t="s" s="2">
-        <v>714</v>
+        <v>83</v>
       </c>
       <c r="AA126" t="s" s="2">
         <v>83</v>
@@ -17748,31 +17730,31 @@
         <v>83</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>709</v>
+        <v>199</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>715</v>
+        <v>200</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>716</v>
+        <v>83</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>83</v>
@@ -17780,21 +17762,21 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G127" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H127" t="s" s="2">
         <v>83</v>
@@ -17806,15 +17788,17 @@
         <v>83</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N127" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
         <v>83</v>
@@ -17851,31 +17835,31 @@
         <v>83</v>
       </c>
       <c r="AB127" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="AC127" t="s" s="2">
-        <v>83</v>
+        <v>204</v>
       </c>
       <c r="AD127" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH127" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI127" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>200</v>
@@ -17895,14 +17879,14 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
-        <v>179</v>
+        <v>83</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" t="s" s="2">
@@ -17912,27 +17896,29 @@
         <v>82</v>
       </c>
       <c r="H128" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I128" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>136</v>
+        <v>231</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O128" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="O128" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="P128" t="s" s="2">
         <v>83</v>
       </c>
@@ -17968,19 +17954,19 @@
         <v>83</v>
       </c>
       <c r="AB128" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="AC128" t="s" s="2">
-        <v>204</v>
+        <v>83</v>
       </c>
       <c r="AD128" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>81</v>
@@ -17992,10 +17978,10 @@
         <v>83</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>83</v>
@@ -18004,7 +17990,7 @@
         <v>83</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>83</v>
+        <v>238</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>83</v>
@@ -18012,10 +17998,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18026,10 +18012,10 @@
         <v>81</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H129" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I129" t="s" s="2">
         <v>83</v>
@@ -18038,19 +18024,19 @@
         <v>92</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>234</v>
+        <v>280</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>235</v>
+        <v>281</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>83</v>
@@ -18099,13 +18085,13 @@
         <v>83</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI129" t="s" s="2">
         <v>83</v>
@@ -18114,7 +18100,7 @@
         <v>103</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>237</v>
+        <v>283</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>83</v>
@@ -18123,7 +18109,7 @@
         <v>83</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>238</v>
+        <v>284</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>83</v>
@@ -18131,10 +18117,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18148,28 +18134,26 @@
         <v>91</v>
       </c>
       <c r="H130" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I130" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>196</v>
+        <v>326</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>278</v>
+        <v>717</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>718</v>
+      </c>
+      <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
-        <v>281</v>
+        <v>719</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>83</v>
@@ -18218,7 +18202,7 @@
         <v>83</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>282</v>
+        <v>716</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>81</v>
@@ -18233,16 +18217,16 @@
         <v>103</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>283</v>
+        <v>333</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>284</v>
+        <v>720</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>83</v>
@@ -18267,7 +18251,7 @@
         <v>91</v>
       </c>
       <c r="H131" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I131" t="s" s="2">
         <v>83</v>
@@ -18276,18 +18260,16 @@
         <v>83</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>326</v>
+        <v>196</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>722</v>
+        <v>197</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>723</v>
+        <v>198</v>
       </c>
       <c r="N131" s="2"/>
-      <c r="O131" t="s" s="2">
-        <v>724</v>
-      </c>
+      <c r="O131" s="2"/>
       <c r="P131" t="s" s="2">
         <v>83</v>
       </c>
@@ -18335,7 +18317,7 @@
         <v>83</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>721</v>
+        <v>199</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>81</v>
@@ -18347,19 +18329,19 @@
         <v>83</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>333</v>
+        <v>200</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>725</v>
+        <v>83</v>
       </c>
       <c r="AO131" t="s" s="2">
         <v>83</v>
@@ -18367,21 +18349,21 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G132" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H132" t="s" s="2">
         <v>83</v>
@@ -18393,15 +18375,17 @@
         <v>83</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N132" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N132" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O132" s="2"/>
       <c r="P132" t="s" s="2">
         <v>83</v>
@@ -18438,31 +18422,31 @@
         <v>83</v>
       </c>
       <c r="AB132" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="AC132" t="s" s="2">
-        <v>83</v>
+        <v>204</v>
       </c>
       <c r="AD132" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>200</v>
@@ -18482,44 +18466,46 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
-        <v>179</v>
+        <v>83</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G133" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H133" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I133" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>202</v>
+        <v>345</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>203</v>
+        <v>724</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O133" s="2"/>
+        <v>725</v>
+      </c>
+      <c r="O133" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="P133" t="s" s="2">
         <v>83</v>
       </c>
@@ -18528,7 +18514,7 @@
         <v>83</v>
       </c>
       <c r="S133" t="s" s="2">
-        <v>83</v>
+        <v>349</v>
       </c>
       <c r="T133" t="s" s="2">
         <v>83</v>
@@ -18543,46 +18529,46 @@
         <v>83</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>83</v>
+        <v>211</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>83</v>
+        <v>350</v>
       </c>
       <c r="Z133" t="s" s="2">
-        <v>83</v>
+        <v>351</v>
       </c>
       <c r="AA133" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB133" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="AC133" t="s" s="2">
-        <v>204</v>
+        <v>83</v>
       </c>
       <c r="AD133" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>205</v>
+        <v>352</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH133" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI133" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>200</v>
+        <v>353</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>83</v>
@@ -18591,7 +18577,7 @@
         <v>83</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>83</v>
+        <v>354</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>83</v>
@@ -18599,10 +18585,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18616,28 +18602,28 @@
         <v>91</v>
       </c>
       <c r="H134" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I134" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J134" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>729</v>
+        <v>358</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>730</v>
+        <v>359</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>83</v>
@@ -18647,7 +18633,7 @@
         <v>83</v>
       </c>
       <c r="S134" t="s" s="2">
-        <v>349</v>
+        <v>83</v>
       </c>
       <c r="T134" t="s" s="2">
         <v>83</v>
@@ -18662,13 +18648,13 @@
         <v>83</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>211</v>
+        <v>83</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>350</v>
+        <v>83</v>
       </c>
       <c r="Z134" t="s" s="2">
-        <v>351</v>
+        <v>83</v>
       </c>
       <c r="AA134" t="s" s="2">
         <v>83</v>
@@ -18686,7 +18672,7 @@
         <v>83</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>81</v>
@@ -18701,7 +18687,7 @@
         <v>103</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>83</v>
@@ -18710,7 +18696,7 @@
         <v>83</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>83</v>
@@ -18718,14 +18704,14 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
-        <v>83</v>
+        <v>366</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" t="s" s="2">
@@ -18735,7 +18721,7 @@
         <v>91</v>
       </c>
       <c r="H135" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I135" t="s" s="2">
         <v>83</v>
@@ -18747,17 +18733,15 @@
         <v>196</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
         <v>83</v>
       </c>
@@ -18805,7 +18789,7 @@
         <v>83</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>81</v>
@@ -18820,7 +18804,7 @@
         <v>103</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>83</v>
@@ -18829,7 +18813,7 @@
         <v>83</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>83</v>
@@ -18837,14 +18821,14 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
-        <v>366</v>
+        <v>83</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" t="s" s="2">
@@ -18854,26 +18838,24 @@
         <v>91</v>
       </c>
       <c r="H136" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I136" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K136" t="s" s="2">
         <v>196</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="N136" s="2"/>
       <c r="O136" s="2"/>
       <c r="P136" t="s" s="2">
         <v>83</v>
@@ -18922,7 +18904,7 @@
         <v>83</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>370</v>
+        <v>199</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>81</v>
@@ -18934,10 +18916,10 @@
         <v>83</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>371</v>
+        <v>83</v>
       </c>
       <c r="AL136" t="s" s="2">
         <v>83</v>
@@ -18946,7 +18928,7 @@
         <v>83</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>372</v>
+        <v>83</v>
       </c>
       <c r="AO136" t="s" s="2">
         <v>83</v>
@@ -18954,10 +18936,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18968,7 +18950,7 @@
         <v>81</v>
       </c>
       <c r="G137" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H137" t="s" s="2">
         <v>83</v>
@@ -18980,13 +18962,13 @@
         <v>83</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>375</v>
+        <v>730</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -19025,31 +19007,29 @@
         <v>83</v>
       </c>
       <c r="AB137" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC137" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AC137" s="2"/>
       <c r="AD137" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH137" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI137" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="AK137" t="s" s="2">
         <v>83</v>
@@ -19069,12 +19049,14 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>734</v>
-      </c>
-      <c r="C138" s="2"/>
+        <v>729</v>
+      </c>
+      <c r="C138" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="D138" t="s" s="2">
         <v>83</v>
       </c>
@@ -19083,10 +19065,10 @@
         <v>81</v>
       </c>
       <c r="G138" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H138" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I138" t="s" s="2">
         <v>83</v>
@@ -19095,13 +19077,13 @@
         <v>83</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>136</v>
+        <v>383</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>735</v>
+        <v>384</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" s="2"/>
@@ -19140,14 +19122,16 @@
         <v>83</v>
       </c>
       <c r="AB138" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC138" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC138" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD138" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>205</v>
@@ -19159,7 +19143,7 @@
         <v>82</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>142</v>
@@ -19182,14 +19166,12 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>734</v>
-      </c>
-      <c r="C139" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>732</v>
+      </c>
+      <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
         <v>83</v>
       </c>
@@ -19201,7 +19183,7 @@
         <v>91</v>
       </c>
       <c r="H139" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I139" t="s" s="2">
         <v>83</v>
@@ -19210,13 +19192,13 @@
         <v>83</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>383</v>
+        <v>196</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" s="2"/>
@@ -19240,7 +19222,7 @@
         <v>83</v>
       </c>
       <c r="W139" t="s" s="2">
-        <v>83</v>
+        <v>389</v>
       </c>
       <c r="X139" t="s" s="2">
         <v>83</v>
@@ -19267,19 +19249,19 @@
         <v>83</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>205</v>
+        <v>390</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH139" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>83</v>
@@ -19299,41 +19281,43 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
-        <v>83</v>
+        <v>393</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G140" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H140" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I140" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K140" t="s" s="2">
         <v>196</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>387</v>
+        <v>734</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N140" s="2"/>
+        <v>735</v>
+      </c>
+      <c r="N140" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
         <v>83</v>
@@ -19355,7 +19339,7 @@
         <v>83</v>
       </c>
       <c r="W140" t="s" s="2">
-        <v>389</v>
+        <v>83</v>
       </c>
       <c r="X140" t="s" s="2">
         <v>83</v>
@@ -19382,22 +19366,22 @@
         <v>83</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH140" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI140" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>83</v>
+        <v>398</v>
       </c>
       <c r="AL140" t="s" s="2">
         <v>83</v>
@@ -19406,7 +19390,7 @@
         <v>83</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>83</v>
+        <v>399</v>
       </c>
       <c r="AO140" t="s" s="2">
         <v>83</v>
@@ -19414,14 +19398,14 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>393</v>
+        <v>83</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
@@ -19431,7 +19415,7 @@
         <v>82</v>
       </c>
       <c r="H141" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I141" t="s" s="2">
         <v>83</v>
@@ -19443,14 +19427,12 @@
         <v>196</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>739</v>
+        <v>402</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>740</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="N141" s="2"/>
       <c r="O141" s="2"/>
       <c r="P141" t="s" s="2">
         <v>83</v>
@@ -19499,7 +19481,7 @@
         <v>83</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>81</v>
@@ -19514,7 +19496,7 @@
         <v>103</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>83</v>
@@ -19523,7 +19505,7 @@
         <v>83</v>
       </c>
       <c r="AN141" t="s" s="2">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="AO141" t="s" s="2">
         <v>83</v>
@@ -19531,10 +19513,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19560,10 +19542,10 @@
         <v>196</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -19614,7 +19596,7 @@
         <v>83</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>81</v>
@@ -19629,7 +19611,7 @@
         <v>103</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="AL142" t="s" s="2">
         <v>83</v>
@@ -19638,7 +19620,7 @@
         <v>83</v>
       </c>
       <c r="AN142" t="s" s="2">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="AO142" t="s" s="2">
         <v>83</v>
@@ -19646,10 +19628,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19660,7 +19642,7 @@
         <v>81</v>
       </c>
       <c r="G143" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H143" t="s" s="2">
         <v>83</v>
@@ -19672,16 +19654,18 @@
         <v>92</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>196</v>
+        <v>303</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="N143" s="2"/>
-      <c r="O143" s="2"/>
+      <c r="O143" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="P143" t="s" s="2">
         <v>83</v>
       </c>
@@ -19729,13 +19713,13 @@
         <v>83</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH143" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI143" t="s" s="2">
         <v>83</v>
@@ -19744,7 +19728,7 @@
         <v>103</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="AL143" t="s" s="2">
         <v>83</v>
@@ -19753,7 +19737,7 @@
         <v>83</v>
       </c>
       <c r="AN143" t="s" s="2">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="AO143" t="s" s="2">
         <v>83</v>
@@ -19761,10 +19745,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -19775,7 +19759,7 @@
         <v>81</v>
       </c>
       <c r="G144" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H144" t="s" s="2">
         <v>83</v>
@@ -19784,20 +19768,22 @@
         <v>83</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>303</v>
+        <v>464</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>416</v>
+        <v>740</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N144" s="2"/>
+        <v>741</v>
+      </c>
+      <c r="N144" t="s" s="2">
+        <v>742</v>
+      </c>
       <c r="O144" t="s" s="2">
-        <v>418</v>
+        <v>468</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>83</v>
@@ -19846,13 +19832,13 @@
         <v>83</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>419</v>
+        <v>739</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH144" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI144" t="s" s="2">
         <v>83</v>
@@ -19861,16 +19847,16 @@
         <v>103</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="AM144" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN144" t="s" s="2">
-        <v>421</v>
+        <v>743</v>
       </c>
       <c r="AO144" t="s" s="2">
         <v>83</v>
@@ -19892,7 +19878,7 @@
         <v>81</v>
       </c>
       <c r="G145" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>83</v>
@@ -19904,19 +19890,17 @@
         <v>83</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>464</v>
+        <v>745</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>746</v>
-      </c>
-      <c r="N145" t="s" s="2">
         <v>747</v>
       </c>
+      <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
-        <v>468</v>
+        <v>748</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>83</v>
@@ -19971,7 +19955,7 @@
         <v>81</v>
       </c>
       <c r="AH145" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI145" t="s" s="2">
         <v>83</v>
@@ -19980,7 +19964,7 @@
         <v>103</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>469</v>
+        <v>749</v>
       </c>
       <c r="AL145" t="s" s="2">
         <v>200</v>
@@ -19989,7 +19973,7 @@
         <v>83</v>
       </c>
       <c r="AN145" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="AO145" t="s" s="2">
         <v>83</v>
@@ -19997,10 +19981,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20023,17 +20007,17 @@
         <v>83</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>750</v>
+        <v>111</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>83</v>
@@ -20058,13 +20042,13 @@
         <v>83</v>
       </c>
       <c r="X146" t="s" s="2">
-        <v>83</v>
+        <v>211</v>
       </c>
       <c r="Y146" t="s" s="2">
-        <v>83</v>
+        <v>514</v>
       </c>
       <c r="Z146" t="s" s="2">
-        <v>83</v>
+        <v>515</v>
       </c>
       <c r="AA146" t="s" s="2">
         <v>83</v>
@@ -20082,7 +20066,7 @@
         <v>83</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>81</v>
@@ -20097,7 +20081,7 @@
         <v>103</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>754</v>
+        <v>516</v>
       </c>
       <c r="AL146" t="s" s="2">
         <v>200</v>
@@ -20140,7 +20124,7 @@
         <v>83</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>111</v>
+        <v>310</v>
       </c>
       <c r="L147" t="s" s="2">
         <v>757</v>
@@ -20175,13 +20159,13 @@
         <v>83</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>211</v>
+        <v>83</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>514</v>
+        <v>83</v>
       </c>
       <c r="Z147" t="s" s="2">
-        <v>515</v>
+        <v>83</v>
       </c>
       <c r="AA147" t="s" s="2">
         <v>83</v>
@@ -20208,13 +20192,13 @@
         <v>91</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>83</v>
+        <v>760</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>516</v>
+        <v>761</v>
       </c>
       <c r="AL147" t="s" s="2">
         <v>200</v>
@@ -20223,7 +20207,7 @@
         <v>83</v>
       </c>
       <c r="AN147" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="AO147" t="s" s="2">
         <v>83</v>
@@ -20231,10 +20215,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20257,18 +20241,16 @@
         <v>83</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="N148" s="2"/>
-      <c r="O148" t="s" s="2">
-        <v>764</v>
-      </c>
+      <c r="O148" s="2"/>
       <c r="P148" t="s" s="2">
         <v>83</v>
       </c>
@@ -20316,7 +20298,7 @@
         <v>83</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>81</v>
@@ -20325,7 +20307,7 @@
         <v>91</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>765</v>
+        <v>83</v>
       </c>
       <c r="AJ148" t="s" s="2">
         <v>103</v>
@@ -20340,7 +20322,7 @@
         <v>83</v>
       </c>
       <c r="AN148" t="s" s="2">
-        <v>767</v>
+        <v>83</v>
       </c>
       <c r="AO148" t="s" s="2">
         <v>83</v>
@@ -20348,10 +20330,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20362,10 +20344,10 @@
         <v>81</v>
       </c>
       <c r="G149" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H149" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I149" t="s" s="2">
         <v>83</v>
@@ -20374,16 +20356,20 @@
         <v>83</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>303</v>
+        <v>686</v>
       </c>
       <c r="L149" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="N149" t="s" s="2">
         <v>769</v>
       </c>
-      <c r="M149" t="s" s="2">
+      <c r="O149" t="s" s="2">
         <v>770</v>
       </c>
-      <c r="N149" s="2"/>
-      <c r="O149" s="2"/>
       <c r="P149" t="s" s="2">
         <v>83</v>
       </c>
@@ -20431,13 +20417,13 @@
         <v>83</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH149" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI149" t="s" s="2">
         <v>83</v>
@@ -20449,7 +20435,7 @@
         <v>771</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>200</v>
+        <v>772</v>
       </c>
       <c r="AM149" t="s" s="2">
         <v>83</v>
@@ -20463,10 +20449,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20477,10 +20463,10 @@
         <v>81</v>
       </c>
       <c r="G150" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H150" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I150" t="s" s="2">
         <v>83</v>
@@ -20489,20 +20475,16 @@
         <v>83</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>691</v>
+        <v>196</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>773</v>
+        <v>197</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>773</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>774</v>
-      </c>
-      <c r="O150" t="s" s="2">
-        <v>775</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N150" s="2"/>
+      <c r="O150" s="2"/>
       <c r="P150" t="s" s="2">
         <v>83</v>
       </c>
@@ -20550,25 +20532,25 @@
         <v>83</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>772</v>
+        <v>199</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH150" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI150" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>776</v>
+        <v>200</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>777</v>
+        <v>83</v>
       </c>
       <c r="AM150" t="s" s="2">
         <v>83</v>
@@ -20582,21 +20564,21 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G151" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H151" t="s" s="2">
         <v>83</v>
@@ -20608,15 +20590,17 @@
         <v>83</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N151" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N151" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O151" s="2"/>
       <c r="P151" t="s" s="2">
         <v>83</v>
@@ -20665,19 +20649,19 @@
         <v>83</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH151" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI151" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>200</v>
@@ -20697,14 +20681,14 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
-        <v>179</v>
+        <v>700</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" t="s" s="2">
@@ -20717,24 +20701,26 @@
         <v>83</v>
       </c>
       <c r="I152" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K152" t="s" s="2">
         <v>136</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>202</v>
+        <v>701</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>203</v>
+        <v>702</v>
       </c>
       <c r="N152" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="O152" s="2"/>
+      <c r="O152" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="P152" t="s" s="2">
         <v>83</v>
       </c>
@@ -20782,7 +20768,7 @@
         <v>83</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>205</v>
+        <v>703</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>81</v>
@@ -20797,7 +20783,7 @@
         <v>142</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>200</v>
+        <v>134</v>
       </c>
       <c r="AL152" t="s" s="2">
         <v>83</v>
@@ -20814,45 +20800,45 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
-        <v>705</v>
+        <v>83</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G153" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H153" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I153" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>706</v>
+        <v>777</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>707</v>
+        <v>778</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>182</v>
+        <v>779</v>
       </c>
       <c r="O153" t="s" s="2">
-        <v>183</v>
+        <v>780</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>83</v>
@@ -20877,13 +20863,13 @@
         <v>83</v>
       </c>
       <c r="X153" t="s" s="2">
-        <v>83</v>
+        <v>211</v>
       </c>
       <c r="Y153" t="s" s="2">
-        <v>83</v>
+        <v>781</v>
       </c>
       <c r="Z153" t="s" s="2">
-        <v>83</v>
+        <v>782</v>
       </c>
       <c r="AA153" t="s" s="2">
         <v>83</v>
@@ -20901,31 +20887,31 @@
         <v>83</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>708</v>
+        <v>776</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AH153" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI153" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>134</v>
+        <v>783</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>83</v>
+        <v>784</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN153" t="s" s="2">
-        <v>83</v>
+        <v>785</v>
       </c>
       <c r="AO153" t="s" s="2">
         <v>83</v>
@@ -20933,10 +20919,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20944,13 +20930,13 @@
       </c>
       <c r="E154" s="2"/>
       <c r="F154" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G154" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H154" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I154" t="s" s="2">
         <v>83</v>
@@ -20959,19 +20945,19 @@
         <v>83</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>217</v>
+        <v>269</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="O154" t="s" s="2">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>83</v>
@@ -20996,34 +20982,34 @@
         <v>83</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>211</v>
+        <v>83</v>
       </c>
       <c r="Y154" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z154" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA154" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB154" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC154" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD154" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE154" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF154" t="s" s="2">
         <v>786</v>
       </c>
-      <c r="Z154" t="s" s="2">
-        <v>787</v>
-      </c>
-      <c r="AA154" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB154" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC154" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD154" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE154" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF154" t="s" s="2">
-        <v>781</v>
-      </c>
       <c r="AG154" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>91</v>
@@ -21035,16 +21021,16 @@
         <v>103</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN154" t="s" s="2">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="AO154" t="s" s="2">
         <v>83</v>
@@ -21052,24 +21038,24 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
-        <v>83</v>
+        <v>795</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G155" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H155" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I155" t="s" s="2">
         <v>83</v>
@@ -21078,20 +21064,18 @@
         <v>83</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>269</v>
+        <v>796</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>794</v>
-      </c>
-      <c r="O155" t="s" s="2">
-        <v>795</v>
-      </c>
+        <v>798</v>
+      </c>
+      <c r="O155" s="2"/>
       <c r="P155" t="s" s="2">
         <v>83</v>
       </c>
@@ -21139,13 +21123,13 @@
         <v>83</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH155" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI155" t="s" s="2">
         <v>83</v>
@@ -21154,16 +21138,16 @@
         <v>103</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>797</v>
+        <v>200</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN155" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="AO155" t="s" s="2">
         <v>83</v>
@@ -21171,24 +21155,24 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
-        <v>800</v>
+        <v>83</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G156" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H156" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I156" t="s" s="2">
         <v>83</v>
@@ -21197,17 +21181,15 @@
         <v>83</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>801</v>
+        <v>196</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>802</v>
+        <v>197</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>802</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>803</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N156" s="2"/>
       <c r="O156" s="2"/>
       <c r="P156" t="s" s="2">
         <v>83</v>
@@ -21256,31 +21238,31 @@
         <v>83</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>799</v>
+        <v>199</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH156" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI156" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ156" t="s" s="2">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>804</v>
+        <v>200</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="AM156" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN156" t="s" s="2">
-        <v>805</v>
+        <v>83</v>
       </c>
       <c r="AO156" t="s" s="2">
         <v>83</v>
@@ -21288,21 +21270,21 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G157" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H157" t="s" s="2">
         <v>83</v>
@@ -21314,15 +21296,17 @@
         <v>83</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N157" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N157" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O157" s="2"/>
       <c r="P157" t="s" s="2">
         <v>83</v>
@@ -21359,31 +21343,31 @@
         <v>83</v>
       </c>
       <c r="AB157" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="AC157" t="s" s="2">
-        <v>83</v>
+        <v>204</v>
       </c>
       <c r="AD157" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH157" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI157" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ157" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="AK157" t="s" s="2">
         <v>200</v>
@@ -21403,42 +21387,42 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
-        <v>179</v>
+        <v>83</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G158" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H158" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I158" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>202</v>
+        <v>804</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>203</v>
+        <v>804</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>182</v>
+        <v>805</v>
       </c>
       <c r="O158" s="2"/>
       <c r="P158" t="s" s="2">
@@ -21476,34 +21460,34 @@
         <v>83</v>
       </c>
       <c r="AB158" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="AC158" t="s" s="2">
-        <v>204</v>
+        <v>83</v>
       </c>
       <c r="AD158" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>205</v>
+        <v>806</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH158" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI158" t="s" s="2">
-        <v>83</v>
+        <v>807</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>200</v>
+        <v>134</v>
       </c>
       <c r="AL158" t="s" s="2">
         <v>83</v>
@@ -21537,7 +21521,7 @@
         <v>91</v>
       </c>
       <c r="H159" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I159" t="s" s="2">
         <v>83</v>
@@ -21546,16 +21530,16 @@
         <v>92</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>196</v>
+        <v>105</v>
       </c>
       <c r="L159" t="s" s="2">
         <v>809</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="O159" s="2"/>
       <c r="P159" t="s" s="2">
@@ -21581,13 +21565,13 @@
         <v>83</v>
       </c>
       <c r="X159" t="s" s="2">
-        <v>83</v>
+        <v>812</v>
       </c>
       <c r="Y159" t="s" s="2">
-        <v>83</v>
+        <v>813</v>
       </c>
       <c r="Z159" t="s" s="2">
-        <v>83</v>
+        <v>814</v>
       </c>
       <c r="AA159" t="s" s="2">
         <v>83</v>
@@ -21605,7 +21589,7 @@
         <v>83</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>81</v>
@@ -21614,7 +21598,7 @@
         <v>91</v>
       </c>
       <c r="AI159" t="s" s="2">
-        <v>812</v>
+        <v>83</v>
       </c>
       <c r="AJ159" t="s" s="2">
         <v>103</v>
@@ -21637,10 +21621,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21663,16 +21647,16 @@
         <v>92</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>105</v>
+        <v>186</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="O160" s="2"/>
       <c r="P160" t="s" s="2">
@@ -21698,13 +21682,13 @@
         <v>83</v>
       </c>
       <c r="X160" t="s" s="2">
-        <v>817</v>
+        <v>83</v>
       </c>
       <c r="Y160" t="s" s="2">
-        <v>818</v>
+        <v>83</v>
       </c>
       <c r="Z160" t="s" s="2">
-        <v>819</v>
+        <v>83</v>
       </c>
       <c r="AA160" t="s" s="2">
         <v>83</v>
@@ -21737,7 +21721,7 @@
         <v>103</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>134</v>
+        <v>821</v>
       </c>
       <c r="AL160" t="s" s="2">
         <v>83</v>
@@ -21754,10 +21738,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -21771,7 +21755,7 @@
         <v>91</v>
       </c>
       <c r="H161" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I161" t="s" s="2">
         <v>83</v>
@@ -21780,10 +21764,10 @@
         <v>92</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="M161" t="s" s="2">
         <v>823</v>
@@ -21854,7 +21838,7 @@
         <v>103</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>826</v>
+        <v>134</v>
       </c>
       <c r="AL161" t="s" s="2">
         <v>83</v>
@@ -21871,10 +21855,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -21888,7 +21872,7 @@
         <v>91</v>
       </c>
       <c r="H162" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I162" t="s" s="2">
         <v>83</v>
@@ -21897,10 +21881,10 @@
         <v>92</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>196</v>
+        <v>310</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="M162" t="s" s="2">
         <v>828</v>
@@ -21908,7 +21892,9 @@
       <c r="N162" t="s" s="2">
         <v>829</v>
       </c>
-      <c r="O162" s="2"/>
+      <c r="O162" t="s" s="2">
+        <v>830</v>
+      </c>
       <c r="P162" t="s" s="2">
         <v>83</v>
       </c>
@@ -21956,7 +21942,7 @@
         <v>83</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>81</v>
@@ -21971,10 +21957,10 @@
         <v>103</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>134</v>
+        <v>761</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>83</v>
+        <v>831</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>83</v>
@@ -21988,10 +21974,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22002,31 +21988,31 @@
         <v>81</v>
       </c>
       <c r="G163" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H163" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I163" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="J163" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>310</v>
+        <v>686</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="O163" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>83</v>
@@ -22075,13 +22061,13 @@
         <v>83</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH163" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI163" t="s" s="2">
         <v>83</v>
@@ -22090,10 +22076,10 @@
         <v>103</v>
       </c>
       <c r="AK163" t="s" s="2">
-        <v>766</v>
+        <v>837</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>836</v>
+        <v>200</v>
       </c>
       <c r="AM163" t="s" s="2">
         <v>83</v>
@@ -22107,10 +22093,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22121,32 +22107,28 @@
         <v>81</v>
       </c>
       <c r="G164" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H164" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I164" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>691</v>
+        <v>196</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>838</v>
+        <v>197</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>839</v>
-      </c>
-      <c r="N164" t="s" s="2">
-        <v>840</v>
-      </c>
-      <c r="O164" t="s" s="2">
-        <v>841</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N164" s="2"/>
+      <c r="O164" s="2"/>
       <c r="P164" t="s" s="2">
         <v>83</v>
       </c>
@@ -22194,25 +22176,25 @@
         <v>83</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>837</v>
+        <v>199</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH164" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI164" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>842</v>
+        <v>200</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="AM164" t="s" s="2">
         <v>83</v>
@@ -22226,21 +22208,21 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G165" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H165" t="s" s="2">
         <v>83</v>
@@ -22252,15 +22234,17 @@
         <v>83</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N165" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N165" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O165" s="2"/>
       <c r="P165" t="s" s="2">
         <v>83</v>
@@ -22309,19 +22293,19 @@
         <v>83</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH165" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI165" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ165" t="s" s="2">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="AK165" t="s" s="2">
         <v>200</v>
@@ -22341,14 +22325,14 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
-        <v>179</v>
+        <v>700</v>
       </c>
       <c r="E166" s="2"/>
       <c r="F166" t="s" s="2">
@@ -22361,24 +22345,26 @@
         <v>83</v>
       </c>
       <c r="I166" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K166" t="s" s="2">
         <v>136</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>202</v>
+        <v>701</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>203</v>
+        <v>702</v>
       </c>
       <c r="N166" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="O166" s="2"/>
+      <c r="O166" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="P166" t="s" s="2">
         <v>83</v>
       </c>
@@ -22426,7 +22412,7 @@
         <v>83</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>205</v>
+        <v>703</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>81</v>
@@ -22441,7 +22427,7 @@
         <v>142</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>200</v>
+        <v>134</v>
       </c>
       <c r="AL166" t="s" s="2">
         <v>83</v>
@@ -22458,46 +22444,44 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
-        <v>705</v>
+        <v>83</v>
       </c>
       <c r="E167" s="2"/>
       <c r="F167" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G167" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H167" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I167" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J167" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>136</v>
+        <v>842</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>706</v>
+        <v>843</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>707</v>
+        <v>844</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O167" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>845</v>
+      </c>
+      <c r="O167" s="2"/>
       <c r="P167" t="s" s="2">
         <v>83</v>
       </c>
@@ -22545,31 +22529,31 @@
         <v>83</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>708</v>
+        <v>841</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AH167" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI167" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>134</v>
+        <v>191</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="AM167" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN167" t="s" s="2">
-        <v>83</v>
+        <v>846</v>
       </c>
       <c r="AO167" t="s" s="2">
         <v>83</v>
@@ -22577,10 +22561,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -22603,7 +22587,7 @@
         <v>92</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>847</v>
+        <v>111</v>
       </c>
       <c r="L168" t="s" s="2">
         <v>848</v>
@@ -22611,9 +22595,7 @@
       <c r="M168" t="s" s="2">
         <v>849</v>
       </c>
-      <c r="N168" t="s" s="2">
-        <v>850</v>
-      </c>
+      <c r="N168" s="2"/>
       <c r="O168" s="2"/>
       <c r="P168" t="s" s="2">
         <v>83</v>
@@ -22638,13 +22620,13 @@
         <v>83</v>
       </c>
       <c r="X168" t="s" s="2">
-        <v>83</v>
+        <v>211</v>
       </c>
       <c r="Y168" t="s" s="2">
-        <v>83</v>
+        <v>849</v>
       </c>
       <c r="Z168" t="s" s="2">
-        <v>83</v>
+        <v>850</v>
       </c>
       <c r="AA168" t="s" s="2">
         <v>83</v>
@@ -22662,7 +22644,7 @@
         <v>83</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>91</v>
@@ -22677,7 +22659,7 @@
         <v>103</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>191</v>
+        <v>851</v>
       </c>
       <c r="AL168" t="s" s="2">
         <v>200</v>
@@ -22686,129 +22668,14 @@
         <v>83</v>
       </c>
       <c r="AN168" t="s" s="2">
-        <v>851</v>
+        <v>83</v>
       </c>
       <c r="AO168" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="169" hidden="true">
-      <c r="A169" t="s" s="2">
-        <v>852</v>
-      </c>
-      <c r="B169" t="s" s="2">
-        <v>852</v>
-      </c>
-      <c r="C169" s="2"/>
-      <c r="D169" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E169" s="2"/>
-      <c r="F169" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G169" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H169" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I169" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J169" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K169" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L169" t="s" s="2">
-        <v>853</v>
-      </c>
-      <c r="M169" t="s" s="2">
-        <v>854</v>
-      </c>
-      <c r="N169" s="2"/>
-      <c r="O169" s="2"/>
-      <c r="P169" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q169" s="2"/>
-      <c r="R169" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S169" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T169" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U169" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V169" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W169" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X169" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="Y169" t="s" s="2">
-        <v>854</v>
-      </c>
-      <c r="Z169" t="s" s="2">
-        <v>855</v>
-      </c>
-      <c r="AA169" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB169" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC169" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD169" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE169" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF169" t="s" s="2">
-        <v>852</v>
-      </c>
-      <c r="AG169" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH169" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI169" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ169" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK169" t="s" s="2">
-        <v>856</v>
-      </c>
-      <c r="AL169" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AM169" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN169" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO169" t="s" s="2">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO169">
+  <autoFilter ref="A1:AO168">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -22818,7 +22685,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI168">
+  <conditionalFormatting sqref="A2:AI167">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/fhir/ig/urgencia/StructureDefinition-PatientUrg.xlsx
+++ b/fhir/ig/urgencia/StructureDefinition-PatientUrg.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T14:50:05-03:00</t>
+    <t>2024-12-17T10:22:12-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
